--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -938,7 +938,7 @@
         <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -971,19 +971,19 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
@@ -1001,7 +1001,7 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1031,7 +1031,7 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1049,7 +1049,7 @@
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1129,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1153,10 +1153,10 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1177,13 +1177,13 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1192,13 +1192,13 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
@@ -1317,28 +1317,28 @@
         <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>
@@ -1347,7 +1347,7 @@
         <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
         <v>10</v>
@@ -1356,10 +1356,10 @@
         <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>9.5</v>
@@ -1374,7 +1374,7 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1410,7 +1410,7 @@
         <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1496,7 +1496,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1663,7 +1663,7 @@
         <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>2.3</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="H9" t="n">
         <v>3.65</v>
@@ -2030,7 +2030,7 @@
         <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
@@ -2057,10 +2057,10 @@
         <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
@@ -2090,7 +2090,7 @@
         <v>8.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2105,7 +2105,7 @@
         <v>9.25</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ9" t="n">
         <v>9</v>
@@ -2123,7 +2123,7 @@
         <v>4.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2138,13 +2138,13 @@
         <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW9" t="n">
         <v>4.25</v>
@@ -2153,7 +2153,7 @@
         <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ9" t="n">
         <v>40</v>
@@ -2203,46 +2203,46 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I10" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L10" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="U10" t="n">
         <v>1.65</v>
@@ -2251,31 +2251,31 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF10" t="n">
         <v>55</v>
@@ -2284,31 +2284,31 @@
         <v>350</v>
       </c>
       <c r="AH10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI10" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AK10" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AO10" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ10" t="n">
         <v>80</v>
@@ -2320,7 +2320,7 @@
         <v>300</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2329,22 +2329,22 @@
         <v>60</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2388,7 +2388,7 @@
         <v>2.52</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
         <v>2.52</v>
@@ -2397,10 +2397,10 @@
         <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2409,31 +2409,31 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
         <v>1.35</v>
       </c>
       <c r="T11" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U11" t="n">
         <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -2442,13 +2442,13 @@
         <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -2457,10 +2457,10 @@
         <v>6.8</v>
       </c>
       <c r="AE11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG11" t="n">
         <v>300</v>
@@ -2475,13 +2475,13 @@
         <v>9.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>19.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN11" t="n">
         <v>4.6</v>
@@ -2496,25 +2496,25 @@
         <v>55</v>
       </c>
       <c r="AR11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS11" t="n">
         <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW11" t="n">
         <v>4.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY11" t="n">
         <v>19.5</v>
@@ -2526,7 +2526,7 @@
         <v>80</v>
       </c>
       <c r="BB11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2779,10 +2779,10 @@
         <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
@@ -2946,7 +2946,7 @@
         <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2961,10 +2961,10 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
@@ -2979,10 +2979,10 @@
         <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
@@ -2991,7 +2991,7 @@
         <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
@@ -3018,7 +3018,7 @@
         <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
         <v>29</v>
@@ -3030,7 +3030,7 @@
         <v>26</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
         <v>13</v>
@@ -3054,7 +3054,7 @@
         <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
@@ -3066,10 +3066,10 @@
         <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
         <v>126</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -3137,10 +3137,10 @@
         <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
         <v>1.7</v>
@@ -3149,16 +3149,16 @@
         <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
         <v>13</v>
@@ -3170,16 +3170,16 @@
         <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
         <v>7</v>
@@ -3191,10 +3191,10 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
@@ -3203,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>15</v>
@@ -3215,7 +3215,7 @@
         <v>5.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>23</v>
@@ -3227,10 +3227,10 @@
         <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
         <v>7.5</v>
@@ -3242,7 +3242,7 @@
         <v>4.33</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>19</v>
@@ -3313,10 +3313,10 @@
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -3325,10 +3325,10 @@
         <v>3.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3528,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
         <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J18" t="n">
         <v>2.3</v>
@@ -3710,7 +3710,7 @@
         <v>5.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
@@ -3761,7 +3761,7 @@
         <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
         <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K19" t="n">
         <v>2.25</v>
@@ -3859,22 +3859,22 @@
         <v>8.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3895,25 +3895,25 @@
         <v>5.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>8.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
         <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
         <v>101</v>
@@ -3928,7 +3928,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK19" t="n">
         <v>101</v>
@@ -3943,7 +3943,7 @@
         <v>3.1</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -3979,7 +3979,7 @@
         <v>251</v>
       </c>
       <c r="BA19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB19" t="n">
         <v>501</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -4253,25 +4253,25 @@
         <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4286,40 +4286,40 @@
         <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN21" t="n">
         <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
         <v>2.75</v>
@@ -4331,19 +4331,19 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
         <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
         <v>151</v>
@@ -4390,10 +4390,10 @@
         <v>2.25</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J22" t="n">
         <v>2.88</v>
@@ -4405,43 +4405,43 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
+        <v>17</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>11</v>
+      </c>
+      <c r="X22" t="n">
         <v>13</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>12</v>
-      </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
         <v>21</v>
@@ -4450,13 +4450,13 @@
         <v>17</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4465,13 +4465,13 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4483,7 +4483,7 @@
         <v>21</v>
       </c>
       <c r="AM22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN22" t="n">
         <v>4.5</v>
@@ -4501,13 +4501,13 @@
         <v>51</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV22" t="n">
         <v>41</v>
@@ -4531,7 +4531,7 @@
         <v>126</v>
       </c>
       <c r="BC22" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BD22" t="n">
         <v>151</v>
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
@@ -4581,16 +4581,16 @@
         <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O23" t="n">
         <v>1.13</v>
@@ -4629,7 +4629,7 @@
         <v>41</v>
       </c>
       <c r="AA23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB23" t="n">
         <v>26</v>
@@ -4665,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="AM23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN23" t="n">
         <v>6.5</v>
@@ -4772,13 +4772,13 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
         <v>1.88</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
         <v>1.78</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L26" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
@@ -5139,22 +5139,22 @@
         <v>6.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T26" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
@@ -5163,10 +5163,10 @@
         <v>1.72</v>
       </c>
       <c r="W26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
         <v>15.5</v>
@@ -5184,31 +5184,31 @@
         <v>6.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>100</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH26" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AI26" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.25</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM26" t="n">
         <v>32</v>
@@ -5232,31 +5232,31 @@
         <v>500</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="AU26" t="n">
         <v>7.6</v>
       </c>
       <c r="AV26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW26" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ26" t="n">
         <v>32</v>
       </c>
       <c r="BA26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BB26" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC26" t="n">
         <v>51</v>
@@ -5664,19 +5664,19 @@
         <v>1.8</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
         <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K29" t="n">
         <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
@@ -5724,7 +5724,7 @@
         <v>13</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
         <v>13</v>
@@ -5742,13 +5742,13 @@
         <v>151</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
         <v>41</v>
@@ -5763,10 +5763,10 @@
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ29" t="n">
         <v>29</v>
@@ -5775,7 +5775,7 @@
         <v>41</v>
       </c>
       <c r="AS29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT29" t="n">
         <v>3.25</v>
@@ -5846,7 +5846,7 @@
         <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
         <v>3.3</v>
@@ -5855,16 +5855,16 @@
         <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L30" t="n">
         <v>3.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
@@ -5873,10 +5873,10 @@
         <v>3.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R30" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S30" t="n">
         <v>1.36</v>
@@ -5885,10 +5885,10 @@
         <v>3</v>
       </c>
       <c r="U30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W30" t="n">
         <v>8.5</v>
@@ -5903,16 +5903,16 @@
         <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5921,7 +5921,7 @@
         <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH30" t="n">
         <v>11</v>
@@ -5939,7 +5939,7 @@
         <v>26</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
         <v>4.33</v>
@@ -5948,7 +5948,7 @@
         <v>11</v>
       </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ30" t="n">
         <v>41</v>
@@ -5972,22 +5972,22 @@
         <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>51</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB30" t="n">
         <v>151</v>
       </c>
       <c r="BC30" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD30" t="n">
         <v>126</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
         <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
         <v>1.91</v>
       </c>
       <c r="L34" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
@@ -6601,10 +6601,10 @@
         <v>2.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
         <v>1.57</v>
@@ -6622,7 +6622,7 @@
         <v>6.5</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
         <v>11</v>
@@ -6673,7 +6673,7 @@
         <v>4.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP34" t="n">
         <v>29</v>
@@ -6682,7 +6682,7 @@
         <v>51</v>
       </c>
       <c r="AR34" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS34" t="n">
         <v>301</v>
@@ -6700,13 +6700,13 @@
         <v>4.75</v>
       </c>
       <c r="AX34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY34" t="n">
         <v>34</v>
       </c>
       <c r="AZ34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA34" t="n">
         <v>101</v>
@@ -6771,10 +6771,10 @@
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1.3</v>
@@ -6941,7 +6941,7 @@
         <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J36" t="n">
         <v>2.88</v>
@@ -6983,7 +6983,7 @@
         <v>2.1</v>
       </c>
       <c r="W36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X36" t="n">
         <v>11</v>
@@ -7031,7 +7031,7 @@
         <v>23</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN36" t="n">
         <v>4.33</v>
@@ -7049,7 +7049,7 @@
         <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT36" t="n">
         <v>3</v>
@@ -7323,16 +7323,16 @@
         <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P38" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R38" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S38" t="n">
         <v>1.3</v>
@@ -7511,10 +7511,10 @@
         <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R39" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
         <v>1.36</v>
@@ -7666,7 +7666,7 @@
         <v>2.6</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
         <v>2.5</v>
@@ -7675,28 +7675,28 @@
         <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L40" t="n">
         <v>3.1</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P40" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S40" t="n">
         <v>1.33</v>
@@ -7705,13 +7705,13 @@
         <v>3.25</v>
       </c>
       <c r="U40" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V40" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -7726,25 +7726,25 @@
         <v>19</v>
       </c>
       <c r="AB40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
         <v>7</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF40" t="n">
         <v>41</v>
       </c>
       <c r="AG40" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI40" t="n">
         <v>13</v>
@@ -7765,7 +7765,7 @@
         <v>4.75</v>
       </c>
       <c r="AO40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP40" t="n">
         <v>21</v>
@@ -7783,7 +7783,7 @@
         <v>3.25</v>
       </c>
       <c r="AU40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV40" t="n">
         <v>41</v>
@@ -7845,13 +7845,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H41" t="n">
         <v>4.33</v>
       </c>
       <c r="I41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J41" t="n">
         <v>6.5</v>
@@ -7869,16 +7869,16 @@
         <v>15</v>
       </c>
       <c r="O41" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R41" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S41" t="n">
         <v>1.29</v>
@@ -7899,7 +7899,7 @@
         <v>41</v>
       </c>
       <c r="Y41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z41" t="n">
         <v>81</v>
@@ -7908,7 +7908,7 @@
         <v>51</v>
       </c>
       <c r="AB41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC41" t="n">
         <v>15</v>
@@ -7977,7 +7977,7 @@
         <v>6.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ41" t="n">
         <v>17</v>
@@ -8027,13 +8027,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J42" t="n">
         <v>3.6</v>
@@ -8048,7 +8048,7 @@
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -8057,25 +8057,25 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U42" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V42" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X42" t="n">
         <v>13</v>
@@ -8087,7 +8087,7 @@
         <v>29</v>
       </c>
       <c r="AA42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB42" t="n">
         <v>34</v>
@@ -8105,7 +8105,7 @@
         <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH42" t="n">
         <v>7.5</v>
@@ -8132,7 +8132,7 @@
         <v>17</v>
       </c>
       <c r="AP42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ42" t="n">
         <v>51</v>
@@ -8144,10 +8144,10 @@
         <v>201</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV42" t="n">
         <v>51</v>
@@ -8209,58 +8209,58 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
         <v>2.6</v>
       </c>
       <c r="K43" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P43" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S43" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T43" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U43" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V43" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
@@ -8272,25 +8272,25 @@
         <v>15</v>
       </c>
       <c r="AB43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC43" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI43" t="n">
         <v>21</v>
@@ -8302,10 +8302,10 @@
         <v>41</v>
       </c>
       <c r="AL43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="n">
         <v>4</v>
@@ -8314,7 +8314,7 @@
         <v>10</v>
       </c>
       <c r="AP43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ43" t="n">
         <v>34</v>
@@ -8323,13 +8323,13 @@
         <v>51</v>
       </c>
       <c r="AS43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT43" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV43" t="n">
         <v>51</v>
@@ -8341,16 +8341,16 @@
         <v>21</v>
       </c>
       <c r="AY43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ43" t="n">
         <v>67</v>
       </c>
       <c r="BA43" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB43" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC43" t="n">
         <v>501</v>
@@ -8391,7 +8391,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="H44" t="n">
         <v>3.5</v>
@@ -8406,13 +8406,13 @@
         <v>2.15</v>
       </c>
       <c r="L44" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="M44" t="n">
-        <v>8.300000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="N44" t="n">
-        <v>1.06</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O44" t="n">
         <v>1.32</v>
@@ -8433,10 +8433,10 @@
         <v>2.6</v>
       </c>
       <c r="U44" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V44" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W44" t="n">
         <v>11.5</v>
@@ -8454,16 +8454,16 @@
         <v>50</v>
       </c>
       <c r="AB44" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC44" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD44" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE44" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF44" t="n">
         <v>90</v>
@@ -8475,19 +8475,19 @@
         <v>6.3</v>
       </c>
       <c r="AI44" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AJ44" t="n">
         <v>8.25</v>
       </c>
       <c r="AK44" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL44" t="n">
         <v>14</v>
       </c>
       <c r="AM44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN44" t="n">
         <v>6.3</v>
@@ -8508,28 +8508,28 @@
         <v>450</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU44" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV44" t="n">
         <v>70</v>
       </c>
       <c r="AW44" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AX44" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AY44" t="n">
         <v>17.5</v>
       </c>
       <c r="AZ44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA44" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB44" t="n">
         <v>250</v>
@@ -8573,22 +8573,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K45" t="n">
         <v>1.95</v>
       </c>
       <c r="L45" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M45" t="n">
         <v>1.1</v>
@@ -8597,10 +8597,10 @@
         <v>7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P45" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q45" t="n">
         <v>2.5</v>
@@ -8615,40 +8615,40 @@
         <v>2.25</v>
       </c>
       <c r="U45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V45" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X45" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y45" t="n">
         <v>13</v>
       </c>
-      <c r="Y45" t="n">
-        <v>12</v>
-      </c>
       <c r="Z45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="n">
         <v>34</v>
       </c>
-      <c r="AA45" t="n">
-        <v>29</v>
-      </c>
       <c r="AB45" t="n">
         <v>41</v>
       </c>
       <c r="AC45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE45" t="n">
         <v>19</v>
       </c>
       <c r="AF45" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG45" t="n">
         <v>101</v>
@@ -8657,7 +8657,7 @@
         <v>6</v>
       </c>
       <c r="AI45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ45" t="n">
         <v>10</v>
@@ -8666,7 +8666,7 @@
         <v>21</v>
       </c>
       <c r="AL45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM45" t="n">
         <v>41</v>
@@ -8675,7 +8675,7 @@
         <v>5</v>
       </c>
       <c r="AO45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP45" t="n">
         <v>34</v>
@@ -8687,7 +8687,7 @@
         <v>101</v>
       </c>
       <c r="AS45" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT45" t="n">
         <v>2.25</v>
@@ -8699,16 +8699,16 @@
         <v>67</v>
       </c>
       <c r="AW45" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY45" t="n">
         <v>29</v>
       </c>
       <c r="AZ45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA45" t="n">
         <v>81</v>
@@ -8755,22 +8755,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="J46" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
         <v>1.95</v>
       </c>
       <c r="L46" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.1</v>
@@ -8779,22 +8779,22 @@
         <v>7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P46" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R46" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S46" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T46" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U46" t="n">
         <v>2.1</v>
@@ -8803,19 +8803,19 @@
         <v>1.67</v>
       </c>
       <c r="W46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y46" t="n">
         <v>11</v>
       </c>
       <c r="Z46" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB46" t="n">
         <v>41</v>
@@ -8836,28 +8836,28 @@
         <v>800</v>
       </c>
       <c r="AH46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM46" t="n">
         <v>41</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP46" t="n">
         <v>29</v>
@@ -8866,13 +8866,13 @@
         <v>51</v>
       </c>
       <c r="AR46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS46" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU46" t="n">
         <v>9</v>
@@ -8881,22 +8881,22 @@
         <v>67</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ46" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA46" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB46" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC46" t="n">
         <v>51</v>
@@ -8937,19 +8937,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>4.75</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L47" t="n">
         <v>5</v>
@@ -8994,7 +8994,7 @@
         <v>9</v>
       </c>
       <c r="Z47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA47" t="n">
         <v>11</v>
@@ -9006,13 +9006,13 @@
         <v>23</v>
       </c>
       <c r="AD47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="n">
         <v>101</v>
@@ -9033,7 +9033,7 @@
         <v>34</v>
       </c>
       <c r="AM47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN47" t="n">
         <v>4</v>
@@ -9066,16 +9066,16 @@
         <v>7.5</v>
       </c>
       <c r="AX47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY47" t="n">
         <v>23</v>
       </c>
       <c r="AZ47" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA47" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB47" t="n">
         <v>126</v>
@@ -9131,7 +9131,7 @@
         <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L48" t="n">
         <v>5</v>
@@ -9140,19 +9140,19 @@
         <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O48" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P48" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R48" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S48" t="n">
         <v>1.25</v>
@@ -9170,7 +9170,7 @@
         <v>10</v>
       </c>
       <c r="X48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y48" t="n">
         <v>8.5</v>
@@ -9188,7 +9188,7 @@
         <v>21</v>
       </c>
       <c r="AD48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE48" t="n">
         <v>15</v>
@@ -9200,10 +9200,10 @@
         <v>126</v>
       </c>
       <c r="AH48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ48" t="n">
         <v>17</v>
@@ -9212,7 +9212,7 @@
         <v>51</v>
       </c>
       <c r="AL48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM48" t="n">
         <v>34</v>
@@ -9495,7 +9495,7 @@
         <v>2.05</v>
       </c>
       <c r="K50" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L50" t="n">
         <v>5</v>
@@ -9582,7 +9582,7 @@
         <v>34</v>
       </c>
       <c r="AN50" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO50" t="n">
         <v>7.5</v>
@@ -9689,16 +9689,16 @@
         <v>21</v>
       </c>
       <c r="O51" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R51" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S51" t="n">
         <v>1.22</v>
@@ -10047,22 +10047,22 @@
         <v>2.63</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R53" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S53" t="n">
         <v>1.33</v>
@@ -10176,7 +10176,7 @@
         <v>126</v>
       </c>
       <c r="BD53" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54">
@@ -10232,19 +10232,19 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O54" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P54" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R54" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S54" t="n">
         <v>1.29</v>
@@ -10253,13 +10253,13 @@
         <v>3.5</v>
       </c>
       <c r="U54" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V54" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X54" t="n">
         <v>13</v>
@@ -10274,7 +10274,7 @@
         <v>15</v>
       </c>
       <c r="AB54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC54" t="n">
         <v>17</v>
@@ -10286,7 +10286,7 @@
         <v>11</v>
       </c>
       <c r="AF54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG54" t="n">
         <v>101</v>
@@ -10393,16 +10393,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J55" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K55" t="n">
         <v>2.1</v>
@@ -10414,19 +10414,19 @@
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R55" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10435,13 +10435,13 @@
         <v>2.63</v>
       </c>
       <c r="U55" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V55" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X55" t="n">
         <v>8</v>
@@ -10453,7 +10453,7 @@
         <v>15</v>
       </c>
       <c r="AA55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB55" t="n">
         <v>29</v>
@@ -10471,13 +10471,13 @@
         <v>51</v>
       </c>
       <c r="AG55" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ55" t="n">
         <v>15</v>
@@ -10495,10 +10495,10 @@
         <v>3.75</v>
       </c>
       <c r="AO55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ55" t="n">
         <v>34</v>
@@ -10507,7 +10507,7 @@
         <v>51</v>
       </c>
       <c r="AS55" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT55" t="n">
         <v>2.63</v>
@@ -10516,7 +10516,7 @@
         <v>8.5</v>
       </c>
       <c r="AV55" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW55" t="n">
         <v>6</v>
@@ -10534,7 +10534,7 @@
         <v>126</v>
       </c>
       <c r="BB55" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC55" t="n">
         <v>81</v>
@@ -10757,22 +10757,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H57" t="n">
         <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
         <v>2.2</v>
       </c>
       <c r="L57" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.05</v>
@@ -10805,16 +10805,16 @@
         <v>2.1</v>
       </c>
       <c r="W57" t="n">
+        <v>9</v>
+      </c>
+      <c r="X57" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y57" t="n">
         <v>9.5</v>
       </c>
-      <c r="X57" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>10</v>
-      </c>
       <c r="Z57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA57" t="n">
         <v>19</v>
@@ -10844,13 +10844,13 @@
         <v>15</v>
       </c>
       <c r="AJ57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK57" t="n">
         <v>29</v>
       </c>
       <c r="AL57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM57" t="n">
         <v>29</v>
@@ -10883,7 +10883,7 @@
         <v>51</v>
       </c>
       <c r="AW57" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX57" t="n">
         <v>15</v>
@@ -10939,13 +10939,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I58" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J58" t="n">
         <v>2.4</v>
@@ -10969,10 +10969,10 @@
         <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R58" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S58" t="n">
         <v>1.33</v>
@@ -10999,7 +10999,7 @@
         <v>15</v>
       </c>
       <c r="AA58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB58" t="n">
         <v>23</v>
@@ -11008,7 +11008,7 @@
         <v>13</v>
       </c>
       <c r="AD58" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE58" t="n">
         <v>13</v>
@@ -11145,16 +11145,16 @@
         <v>8</v>
       </c>
       <c r="O59" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P59" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R59" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S59" t="n">
         <v>1.5</v>
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
@@ -11539,13 +11539,13 @@
         <v>7</v>
       </c>
       <c r="Y61" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z61" t="n">
         <v>13</v>
       </c>
       <c r="AA61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB61" t="n">
         <v>41</v>
@@ -11554,7 +11554,7 @@
         <v>7</v>
       </c>
       <c r="AD61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE61" t="n">
         <v>21</v>
@@ -11849,28 +11849,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>6.5</v>
       </c>
       <c r="I63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J63" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K63" t="n">
         <v>2.75</v>
       </c>
       <c r="L63" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M63" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="O63" t="n">
         <v>1.13</v>
@@ -11879,10 +11879,10 @@
         <v>5.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R63" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S63" t="n">
         <v>1.22</v>
@@ -11891,10 +11891,10 @@
         <v>4</v>
       </c>
       <c r="U63" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W63" t="n">
         <v>9.5</v>
@@ -11906,7 +11906,7 @@
         <v>10</v>
       </c>
       <c r="Z63" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA63" t="n">
         <v>11</v>
@@ -11921,7 +11921,7 @@
         <v>13</v>
       </c>
       <c r="AE63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF63" t="n">
         <v>67</v>
@@ -11969,7 +11969,7 @@
         <v>4</v>
       </c>
       <c r="AU63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV63" t="n">
         <v>51</v>
@@ -12043,16 +12043,16 @@
         <v>1.73</v>
       </c>
       <c r="K64" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L64" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O64" t="n">
         <v>1.17</v>
@@ -12061,10 +12061,10 @@
         <v>4.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R64" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="S64" t="n">
         <v>1.29</v>
@@ -12073,19 +12073,19 @@
         <v>3.5</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V64" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W64" t="n">
         <v>8</v>
       </c>
       <c r="X64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z64" t="n">
         <v>8.5</v>
@@ -12112,7 +12112,7 @@
         <v>800</v>
       </c>
       <c r="AH64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI64" t="n">
         <v>41</v>
@@ -12127,7 +12127,7 @@
         <v>51</v>
       </c>
       <c r="AM64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN64" t="n">
         <v>3.4</v>
@@ -12142,16 +12142,16 @@
         <v>15</v>
       </c>
       <c r="AR64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS64" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT64" t="n">
         <v>3.5</v>
       </c>
       <c r="AU64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV64" t="n">
         <v>51</v>
@@ -12395,19 +12395,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H66" t="n">
         <v>3.4</v>
       </c>
       <c r="I66" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J66" t="n">
         <v>2.75</v>
       </c>
       <c r="K66" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L66" t="n">
         <v>4</v>
@@ -12446,19 +12446,19 @@
         <v>7.5</v>
       </c>
       <c r="X66" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
       </c>
       <c r="Z66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA66" t="n">
         <v>17</v>
       </c>
       <c r="AB66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC66" t="n">
         <v>10</v>
@@ -12476,13 +12476,13 @@
         <v>251</v>
       </c>
       <c r="AH66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK66" t="n">
         <v>41</v>
@@ -12577,22 +12577,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H67" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I67" t="n">
         <v>4.25</v>
       </c>
       <c r="J67" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K67" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L67" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="M67" t="n">
         <v>1.05</v>
@@ -12613,10 +12613,10 @@
         <v>2.07</v>
       </c>
       <c r="S67" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T67" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="U67" t="n">
         <v>1.57</v>
@@ -12625,7 +12625,7 @@
         <v>2.25</v>
       </c>
       <c r="W67" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X67" t="n">
         <v>10.25</v>
@@ -12637,7 +12637,7 @@
         <v>17</v>
       </c>
       <c r="AA67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB67" t="n">
         <v>19.5</v>
@@ -12646,16 +12646,16 @@
         <v>7.9</v>
       </c>
       <c r="AD67" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE67" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF67" t="n">
         <v>45</v>
       </c>
       <c r="AG67" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH67" t="n">
         <v>14</v>
@@ -12664,7 +12664,7 @@
         <v>27</v>
       </c>
       <c r="AJ67" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK67" t="n">
         <v>75</v>
@@ -12673,46 +12673,46 @@
         <v>37</v>
       </c>
       <c r="AM67" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN67" t="n">
         <v>3.9</v>
       </c>
       <c r="AO67" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP67" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR67" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS67" t="n">
         <v>175</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU67" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV67" t="n">
         <v>50</v>
       </c>
       <c r="AW67" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AX67" t="n">
         <v>24</v>
       </c>
       <c r="AY67" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ67" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA67" t="n">
         <v>150</v>
@@ -13123,22 +13123,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J70" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K70" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M70" t="n">
         <v>1.04</v>
@@ -13153,10 +13153,10 @@
         <v>4</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R70" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S70" t="n">
         <v>1.33</v>
@@ -13165,10 +13165,10 @@
         <v>3.25</v>
       </c>
       <c r="U70" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W70" t="n">
         <v>7</v>
@@ -13180,7 +13180,7 @@
         <v>8.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA70" t="n">
         <v>12</v>
@@ -13192,10 +13192,10 @@
         <v>12</v>
       </c>
       <c r="AD70" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF70" t="n">
         <v>51</v>
@@ -13204,28 +13204,28 @@
         <v>301</v>
       </c>
       <c r="AH70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ70" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK70" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL70" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM70" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN70" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO70" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP70" t="n">
         <v>19</v>
@@ -13243,25 +13243,25 @@
         <v>3.25</v>
       </c>
       <c r="AU70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV70" t="n">
         <v>51</v>
       </c>
       <c r="AW70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX70" t="n">
         <v>34</v>
       </c>
       <c r="AY70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ70" t="n">
         <v>126</v>
       </c>
       <c r="BA70" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB70" t="n">
         <v>251</v>
@@ -13305,28 +13305,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H71" t="n">
         <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J71" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K71" t="n">
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M71" t="n">
         <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
         <v>1.33</v>
@@ -13356,16 +13356,16 @@
         <v>8</v>
       </c>
       <c r="X71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB71" t="n">
         <v>29</v>
@@ -13386,10 +13386,10 @@
         <v>251</v>
       </c>
       <c r="AH71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ71" t="n">
         <v>11</v>
@@ -13404,7 +13404,7 @@
         <v>34</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO71" t="n">
         <v>13</v>
@@ -13431,10 +13431,10 @@
         <v>51</v>
       </c>
       <c r="AW71" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY71" t="n">
         <v>26</v>
@@ -13443,7 +13443,7 @@
         <v>51</v>
       </c>
       <c r="BA71" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB71" t="n">
         <v>201</v>
@@ -13487,13 +13487,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>3.15</v>
       </c>
       <c r="I72" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J72" t="n">
         <v>3.45</v>
@@ -13502,76 +13502,76 @@
         <v>1.98</v>
       </c>
       <c r="L72" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>8.4</v>
+        <v>7.95</v>
       </c>
       <c r="O72" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P72" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R72" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S72" t="n">
         <v>1.47</v>
       </c>
       <c r="T72" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="U72" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V72" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W72" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X72" t="n">
         <v>13</v>
       </c>
       <c r="Y72" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z72" t="n">
         <v>32</v>
       </c>
       <c r="AA72" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB72" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC72" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD72" t="n">
         <v>6.1</v>
       </c>
       <c r="AE72" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF72" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG72" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH72" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AI72" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AJ72" t="n">
         <v>9.75</v>
@@ -13580,37 +13580,37 @@
         <v>25</v>
       </c>
       <c r="AL72" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM72" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN72" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AO72" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP72" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ72" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR72" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS72" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="AU72" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV72" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW72" t="n">
         <v>4.15</v>
@@ -13619,7 +13619,7 @@
         <v>13</v>
       </c>
       <c r="AY72" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ72" t="n">
         <v>60</v>
@@ -13628,7 +13628,7 @@
         <v>110</v>
       </c>
       <c r="BB72" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC72" t="n">
         <v>81</v>
@@ -13854,19 +13854,19 @@
         <v>2.25</v>
       </c>
       <c r="H74" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I74" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J74" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
         <v>1.95</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M74" t="n">
         <v>1.1</v>
@@ -13941,7 +13941,7 @@
         <v>13</v>
       </c>
       <c r="AK74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL74" t="n">
         <v>34</v>
@@ -13959,7 +13959,7 @@
         <v>29</v>
       </c>
       <c r="AQ74" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR74" t="n">
         <v>81</v>
@@ -14215,28 +14215,28 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="H76" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J76" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K76" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="L76" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="M76" t="n">
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O76" t="n">
         <v>1.2</v>
@@ -14248,79 +14248,79 @@
         <v>1.62</v>
       </c>
       <c r="R76" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S76" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T76" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U76" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V76" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="W76" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="X76" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y76" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z76" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA76" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB76" t="n">
         <v>40</v>
       </c>
       <c r="AC76" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD76" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AE76" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF76" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG76" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH76" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI76" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AJ76" t="n">
         <v>8</v>
       </c>
       <c r="AK76" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AL76" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM76" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN76" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO76" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP76" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ76" t="n">
         <v>150</v>
@@ -14329,28 +14329,28 @@
         <v>150</v>
       </c>
       <c r="AS76" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU76" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV76" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW76" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AX76" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AY76" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA76" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -762,13 +762,13 @@
         <v>2.63</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -789,16 +789,16 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -879,7 +879,7 @@
         <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>101</v>
@@ -891,7 +891,7 @@
         <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
@@ -1019,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
@@ -1031,7 +1031,7 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1049,13 +1049,13 @@
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>17</v>
@@ -1147,16 +1147,16 @@
         <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1228,7 +1228,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1317,10 +1317,10 @@
         <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
         <v>1.62</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
@@ -1505,10 +1505,10 @@
         <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1532,7 +1532,7 @@
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1580,7 +1580,7 @@
         <v>9.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
@@ -1589,7 +1589,7 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
@@ -1601,7 +1601,7 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
         <v>26</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>2.3</v>
@@ -1741,7 +1741,7 @@
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>13</v>
@@ -1783,7 +1783,7 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
         <v>19</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S9" t="n">
         <v>1.34</v>
@@ -2063,31 +2063,31 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
         <v>10.75</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
         <v>7.2</v>
@@ -2099,37 +2099,37 @@
         <v>50</v>
       </c>
       <c r="AG9" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH9" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>9.25</v>
       </c>
-      <c r="AI9" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM9" t="n">
         <v>24</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR9" t="n">
         <v>90</v>
@@ -2144,19 +2144,19 @@
         <v>6.9</v>
       </c>
       <c r="AV9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA9" t="n">
         <v>70</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2603,10 +2603,10 @@
         <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T12" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="U12" t="n">
         <v>1.6</v>
@@ -2624,7 +2624,7 @@
         <v>9.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
         <v>18.5</v>
@@ -2633,13 +2633,13 @@
         <v>24</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>50</v>
@@ -2663,13 +2663,13 @@
         <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
         <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
@@ -2678,16 +2678,16 @@
         <v>50</v>
       </c>
       <c r="AR12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS12" t="n">
         <v>200</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV12" t="n">
         <v>55</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
         <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2979,16 +2979,16 @@
         <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
@@ -3015,25 +3015,25 @@
         <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>11</v>
       </c>
       <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AL14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>26</v>
-      </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3060,10 +3060,10 @@
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
         <v>51</v>
@@ -3072,7 +3072,7 @@
         <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
         <v>351</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -3128,13 +3128,13 @@
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
@@ -3164,10 +3164,10 @@
         <v>13</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
         <v>41</v>
@@ -3182,7 +3182,7 @@
         <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3197,10 +3197,10 @@
         <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
@@ -3212,7 +3212,7 @@
         <v>21</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3239,7 +3239,7 @@
         <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3316,7 +3316,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -3337,10 +3337,10 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
         <v>5.5</v>
@@ -3361,10 +3361,10 @@
         <v>34</v>
       </c>
       <c r="AC16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD16" t="n">
         <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE16" t="n">
         <v>23</v>
@@ -3498,7 +3498,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -3683,10 +3683,10 @@
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
         <v>2.2</v>
@@ -3841,19 +3841,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H19" t="n">
         <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.95</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
         <v>8.5</v>
@@ -3895,10 +3895,10 @@
         <v>5.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA19" t="n">
         <v>15</v>
@@ -3913,7 +3913,7 @@
         <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
         <v>101</v>
@@ -3937,7 +3937,7 @@
         <v>67</v>
       </c>
       <c r="AM19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN19" t="n">
         <v>3.1</v>
@@ -3979,7 +3979,7 @@
         <v>251</v>
       </c>
       <c r="BA19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB19" t="n">
         <v>501</v>
@@ -4023,28 +4023,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
@@ -4071,16 +4071,16 @@
         <v>1.62</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y20" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>10</v>
-      </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
         <v>21</v>
@@ -4092,13 +4092,13 @@
         <v>6.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG20" t="n">
         <v>201</v>
@@ -4107,31 +4107,31 @@
         <v>8</v>
       </c>
       <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>15</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
       <c r="AK20" t="n">
         <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
         <v>81</v>
@@ -4149,10 +4149,10 @@
         <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>34</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -4229,16 +4229,16 @@
         <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R21" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
         <v>1.4</v>
@@ -4262,10 +4262,10 @@
         <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
@@ -4280,31 +4280,31 @@
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
         <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ21" t="n">
         <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>17</v>
       </c>
       <c r="AM21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO21" t="n">
         <v>19</v>
@@ -4417,10 +4417,10 @@
         <v>4.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S22" t="n">
         <v>1.3</v>
@@ -4775,10 +4775,10 @@
         <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
         <v>1.88</v>
@@ -4799,7 +4799,7 @@
         <v>1.8</v>
       </c>
       <c r="W24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X24" t="n">
         <v>7</v>
@@ -4853,7 +4853,7 @@
         <v>3.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP24" t="n">
         <v>19</v>
@@ -4865,7 +4865,7 @@
         <v>41</v>
       </c>
       <c r="AS24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT24" t="n">
         <v>3</v>
@@ -4877,7 +4877,7 @@
         <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX24" t="n">
         <v>29</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
@@ -4948,7 +4948,7 @@
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4963,10 +4963,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4987,7 +4987,7 @@
         <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
         <v>21</v>
@@ -5011,7 +5011,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH25" t="n">
         <v>11</v>
@@ -5020,16 +5020,16 @@
         <v>17</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN25" t="n">
         <v>4.33</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="n">
         <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J26" t="n">
         <v>5.1</v>
@@ -5136,16 +5136,16 @@
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R26" t="n">
         <v>1.62</v>
@@ -5163,7 +5163,7 @@
         <v>1.72</v>
       </c>
       <c r="W26" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X26" t="n">
         <v>26</v>
@@ -5181,10 +5181,10 @@
         <v>60</v>
       </c>
       <c r="AC26" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AD26" t="n">
         <v>6.2</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.3</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5199,7 +5199,7 @@
         <v>5.7</v>
       </c>
       <c r="AI26" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.25</v>
@@ -5214,10 +5214,10 @@
         <v>32</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AO26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP26" t="n">
         <v>35</v>
@@ -5238,22 +5238,22 @@
         <v>7.6</v>
       </c>
       <c r="AV26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ26" t="n">
         <v>32</v>
       </c>
       <c r="BA26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB26" t="n">
         <v>300</v>
@@ -5300,88 +5300,88 @@
         <v>3.05</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2.07</v>
       </c>
-      <c r="L27" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N27" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.78</v>
       </c>
-      <c r="S27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.7</v>
-      </c>
       <c r="V27" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="W27" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X27" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
         <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE27" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG27" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ27" t="n">
         <v>9</v>
@@ -5393,52 +5393,52 @@
         <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR27" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AS27" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AV27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="AX27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY27" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB27" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>
@@ -5482,7 +5482,7 @@
         <v>5.9</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
         <v>1.6</v>
@@ -5491,22 +5491,22 @@
         <v>5.8</v>
       </c>
       <c r="K28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L28" t="n">
         <v>2.15</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.1</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Q28" t="n">
         <v>2.07</v>
@@ -5515,10 +5515,10 @@
         <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T28" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="U28" t="n">
         <v>2.05</v>
@@ -5542,16 +5542,16 @@
         <v>70</v>
       </c>
       <c r="AB28" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF28" t="n">
         <v>110</v>
@@ -5563,13 +5563,13 @@
         <v>5.6</v>
       </c>
       <c r="AI28" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AJ28" t="n">
         <v>8.25</v>
       </c>
       <c r="AK28" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AL28" t="n">
         <v>14</v>
@@ -5578,13 +5578,13 @@
         <v>32</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AO28" t="n">
         <v>35</v>
       </c>
       <c r="AP28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ28" t="n">
         <v>250</v>
@@ -5593,13 +5593,13 @@
         <v>250</v>
       </c>
       <c r="AS28" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV28" t="n">
         <v>80</v>
@@ -5608,13 +5608,13 @@
         <v>3.35</v>
       </c>
       <c r="AX28" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
       </c>
       <c r="AZ28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA28" t="n">
         <v>60</v>
@@ -5664,7 +5664,7 @@
         <v>1.8</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
         <v>4.2</v>
@@ -5685,16 +5685,16 @@
         <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
         <v>1.33</v>
@@ -5748,13 +5748,13 @@
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>41</v>
       </c>
       <c r="AL29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM29" t="n">
         <v>34</v>
@@ -5763,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP29" t="n">
         <v>17</v>
@@ -5846,7 +5846,7 @@
         <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
         <v>3.3</v>
@@ -5873,10 +5873,10 @@
         <v>3.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R30" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
         <v>1.36</v>
@@ -5903,7 +5903,7 @@
         <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB30" t="n">
         <v>23</v>
@@ -5912,7 +5912,7 @@
         <v>12</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5948,7 +5948,7 @@
         <v>11</v>
       </c>
       <c r="AP30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
         <v>41</v>
@@ -5972,7 +5972,7 @@
         <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
         <v>23</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H32" t="n">
         <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J32" t="n">
         <v>2.2</v>
@@ -6222,19 +6222,19 @@
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="n">
         <v>2.1</v>
@@ -6282,7 +6282,7 @@
         <v>21</v>
       </c>
       <c r="AF32" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG32" t="n">
         <v>201</v>
@@ -6342,7 +6342,7 @@
         <v>41</v>
       </c>
       <c r="AZ32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA32" t="n">
         <v>151</v>
@@ -6601,10 +6601,10 @@
         <v>2.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
         <v>1.57</v>
@@ -6965,10 +6965,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
         <v>1.36</v>
@@ -7299,22 +7299,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K38" t="n">
         <v>2.38</v>
       </c>
       <c r="L38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -7335,10 +7335,10 @@
         <v>2.3</v>
       </c>
       <c r="S38" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U38" t="n">
         <v>1.5</v>
@@ -7350,16 +7350,16 @@
         <v>11</v>
       </c>
       <c r="X38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z38" t="n">
         <v>21</v>
       </c>
       <c r="AA38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB38" t="n">
         <v>21</v>
@@ -7380,19 +7380,19 @@
         <v>101</v>
       </c>
       <c r="AH38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI38" t="n">
         <v>19</v>
       </c>
       <c r="AJ38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK38" t="n">
         <v>34</v>
       </c>
       <c r="AL38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM38" t="n">
         <v>26</v>
@@ -7401,22 +7401,22 @@
         <v>4.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS38" t="n">
         <v>101</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU38" t="n">
         <v>7</v>
@@ -7425,22 +7425,22 @@
         <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY38" t="n">
         <v>21</v>
       </c>
       <c r="AZ38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA38" t="n">
         <v>51</v>
       </c>
       <c r="BB38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC38" t="n">
         <v>351</v>
@@ -7487,7 +7487,7 @@
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J39" t="n">
         <v>3.1</v>
@@ -7502,7 +7502,7 @@
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O39" t="n">
         <v>1.22</v>
@@ -7553,7 +7553,7 @@
         <v>6.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF39" t="n">
         <v>41</v>
@@ -7571,7 +7571,7 @@
         <v>10</v>
       </c>
       <c r="AK39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
         <v>21</v>
@@ -7619,10 +7619,10 @@
         <v>41</v>
       </c>
       <c r="BA39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC39" t="n">
         <v>81</v>
@@ -7663,22 +7663,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K40" t="n">
         <v>2.25</v>
       </c>
       <c r="L40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -7693,10 +7693,10 @@
         <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R40" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S40" t="n">
         <v>1.33</v>
@@ -7711,7 +7711,7 @@
         <v>2.2</v>
       </c>
       <c r="W40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -7723,7 +7723,7 @@
         <v>26</v>
       </c>
       <c r="AA40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB40" t="n">
         <v>26</v>
@@ -7750,7 +7750,7 @@
         <v>13</v>
       </c>
       <c r="AJ40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK40" t="n">
         <v>23</v>
@@ -7762,7 +7762,7 @@
         <v>23</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO40" t="n">
         <v>15</v>
@@ -7866,19 +7866,19 @@
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O41" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R41" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S41" t="n">
         <v>1.29</v>
@@ -8027,13 +8027,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J42" t="n">
         <v>3.6</v>
@@ -8045,10 +8045,10 @@
         <v>3.2</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -8057,10 +8057,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S42" t="n">
         <v>1.5</v>
@@ -8075,25 +8075,25 @@
         <v>1.8</v>
       </c>
       <c r="W42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y42" t="n">
         <v>11</v>
       </c>
       <c r="Z42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA42" t="n">
         <v>26</v>
       </c>
       <c r="AB42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD42" t="n">
         <v>6</v>
@@ -8108,7 +8108,7 @@
         <v>351</v>
       </c>
       <c r="AH42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI42" t="n">
         <v>11</v>
@@ -8153,7 +8153,7 @@
         <v>51</v>
       </c>
       <c r="AW42" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX42" t="n">
         <v>15</v>
@@ -8391,34 +8391,34 @@
         </is>
       </c>
       <c r="G44" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J44" t="n">
         <v>4.65</v>
       </c>
-      <c r="H44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.9</v>
-      </c>
       <c r="K44" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L44" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="M44" t="n">
-        <v>1.02</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N44" t="n">
-        <v>8.800000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="O44" t="n">
         <v>1.32</v>
       </c>
       <c r="P44" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Q44" t="n">
         <v>1.93</v>
@@ -8427,106 +8427,106 @@
         <v>1.7</v>
       </c>
       <c r="S44" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T44" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U44" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V44" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W44" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X44" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y44" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB44" t="n">
         <v>50</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>55</v>
       </c>
       <c r="AC44" t="n">
         <v>8.75</v>
       </c>
       <c r="AD44" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE44" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF44" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG44" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH44" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI44" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AJ44" t="n">
         <v>8.25</v>
       </c>
       <c r="AK44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL44" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM44" t="n">
         <v>29</v>
       </c>
       <c r="AN44" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AO44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ44" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR44" t="n">
         <v>175</v>
       </c>
-      <c r="AR44" t="n">
-        <v>200</v>
-      </c>
       <c r="AS44" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU44" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AV44" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW44" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AX44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY44" t="n">
         <v>17.5</v>
       </c>
       <c r="AZ44" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA44" t="n">
         <v>60</v>
@@ -8597,10 +8597,10 @@
         <v>7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P45" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q45" t="n">
         <v>2.5</v>
@@ -8755,16 +8755,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
         <v>1.95</v>
@@ -8779,16 +8779,16 @@
         <v>7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P46" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S46" t="n">
         <v>1.53</v>
@@ -8836,16 +8836,16 @@
         <v>800</v>
       </c>
       <c r="AH46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ46" t="n">
         <v>11</v>
       </c>
       <c r="AK46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL46" t="n">
         <v>26</v>
@@ -8854,7 +8854,7 @@
         <v>41</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO46" t="n">
         <v>17</v>
@@ -8866,10 +8866,10 @@
         <v>51</v>
       </c>
       <c r="AR46" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS46" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT46" t="n">
         <v>2.38</v>
@@ -9134,13 +9134,13 @@
         <v>2.6</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O48" t="n">
         <v>1.14</v>
@@ -9161,16 +9161,16 @@
         <v>3.75</v>
       </c>
       <c r="U48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W48" t="n">
         <v>10</v>
       </c>
       <c r="X48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y48" t="n">
         <v>8.5</v>
@@ -9197,7 +9197,7 @@
         <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH48" t="n">
         <v>19</v>
@@ -9301,13 +9301,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H49" t="n">
         <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J49" t="n">
         <v>1.91</v>
@@ -9349,7 +9349,7 @@
         <v>2</v>
       </c>
       <c r="W49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X49" t="n">
         <v>8</v>
@@ -9382,13 +9382,13 @@
         <v>201</v>
       </c>
       <c r="AH49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI49" t="n">
         <v>34</v>
       </c>
       <c r="AJ49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK49" t="n">
         <v>67</v>
@@ -9430,7 +9430,7 @@
         <v>8</v>
       </c>
       <c r="AX49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY49" t="n">
         <v>34</v>
@@ -9483,10 +9483,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H50" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I50" t="n">
         <v>5.25</v>
@@ -9495,7 +9495,7 @@
         <v>2.05</v>
       </c>
       <c r="K50" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L50" t="n">
         <v>5</v>
@@ -9534,7 +9534,7 @@
         <v>10</v>
       </c>
       <c r="X50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y50" t="n">
         <v>8.5</v>
@@ -9567,7 +9567,7 @@
         <v>19</v>
       </c>
       <c r="AI50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ50" t="n">
         <v>17</v>
@@ -9576,7 +9576,7 @@
         <v>51</v>
       </c>
       <c r="AL50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM50" t="n">
         <v>34</v>
@@ -9665,22 +9665,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I51" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J51" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K51" t="n">
         <v>2.75</v>
       </c>
       <c r="L51" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
         <v>1.02</v>
@@ -9737,19 +9737,19 @@
         <v>10</v>
       </c>
       <c r="AE51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF51" t="n">
         <v>41</v>
       </c>
       <c r="AG51" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ51" t="n">
         <v>19</v>
@@ -9761,16 +9761,16 @@
         <v>41</v>
       </c>
       <c r="AM51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN51" t="n">
         <v>3.75</v>
       </c>
       <c r="AO51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ51" t="n">
         <v>17</v>
@@ -9791,7 +9791,7 @@
         <v>41</v>
       </c>
       <c r="AW51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX51" t="n">
         <v>29</v>
@@ -9800,10 +9800,10 @@
         <v>29</v>
       </c>
       <c r="AZ51" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA51" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB51" t="n">
         <v>151</v>
@@ -9868,7 +9868,7 @@
         <v>1.02</v>
       </c>
       <c r="N52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O52" t="n">
         <v>1.11</v>
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J54" t="n">
         <v>2.6</v>
@@ -10232,34 +10232,34 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O54" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R54" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S54" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T54" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U54" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V54" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X54" t="n">
         <v>13</v>
@@ -10268,16 +10268,16 @@
         <v>9</v>
       </c>
       <c r="Z54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA54" t="n">
         <v>15</v>
       </c>
       <c r="AB54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD54" t="n">
         <v>7.5</v>
@@ -10307,7 +10307,7 @@
         <v>23</v>
       </c>
       <c r="AM54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN54" t="n">
         <v>4.5</v>
@@ -10328,7 +10328,7 @@
         <v>81</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU54" t="n">
         <v>7</v>
@@ -10411,10 +10411,10 @@
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O55" t="n">
         <v>1.33</v>
@@ -10423,10 +10423,10 @@
         <v>3.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R55" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S55" t="n">
         <v>1.44</v>
@@ -10757,22 +10757,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K57" t="n">
         <v>2.2</v>
       </c>
       <c r="L57" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M57" t="n">
         <v>1.05</v>
@@ -10817,7 +10817,7 @@
         <v>21</v>
       </c>
       <c r="AA57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB57" t="n">
         <v>26</v>
@@ -10838,16 +10838,16 @@
         <v>151</v>
       </c>
       <c r="AH57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ57" t="n">
         <v>11</v>
       </c>
       <c r="AK57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL57" t="n">
         <v>23</v>
@@ -10856,10 +10856,10 @@
         <v>29</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP57" t="n">
         <v>21</v>
@@ -10886,7 +10886,7 @@
         <v>5</v>
       </c>
       <c r="AX57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY57" t="n">
         <v>23</v>
@@ -11145,16 +11145,16 @@
         <v>8</v>
       </c>
       <c r="O59" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P59" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R59" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S59" t="n">
         <v>1.5</v>
@@ -11485,22 +11485,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H61" t="n">
         <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K61" t="n">
         <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
@@ -11533,7 +11533,7 @@
         <v>1.57</v>
       </c>
       <c r="W61" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X61" t="n">
         <v>7</v>
@@ -11566,28 +11566,28 @@
         <v>201</v>
       </c>
       <c r="AH61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI61" t="n">
         <v>23</v>
       </c>
       <c r="AJ61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK61" t="n">
         <v>51</v>
       </c>
       <c r="AL61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM61" t="n">
         <v>51</v>
       </c>
       <c r="AN61" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP61" t="n">
         <v>26</v>
@@ -11614,7 +11614,7 @@
         <v>6.5</v>
       </c>
       <c r="AX61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY61" t="n">
         <v>41</v>
@@ -11855,22 +11855,22 @@
         <v>6.5</v>
       </c>
       <c r="I63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
         <v>1.57</v>
       </c>
       <c r="K63" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L63" t="n">
         <v>8.5</v>
       </c>
       <c r="M63" t="n">
+        <v>19</v>
+      </c>
+      <c r="N63" t="n">
         <v>1.02</v>
-      </c>
-      <c r="N63" t="n">
-        <v>12</v>
       </c>
       <c r="O63" t="n">
         <v>1.13</v>
@@ -11879,10 +11879,10 @@
         <v>5.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S63" t="n">
         <v>1.22</v>
@@ -11915,34 +11915,34 @@
         <v>26</v>
       </c>
       <c r="AC63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD63" t="n">
         <v>13</v>
       </c>
       <c r="AE63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF63" t="n">
         <v>67</v>
       </c>
       <c r="AG63" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI63" t="n">
         <v>51</v>
       </c>
       <c r="AJ63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK63" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL63" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM63" t="n">
         <v>51</v>
@@ -12031,13 +12031,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H64" t="n">
         <v>5.75</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J64" t="n">
         <v>1.73</v>
@@ -12046,7 +12046,7 @@
         <v>2.6</v>
       </c>
       <c r="L64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.02</v>
@@ -12073,10 +12073,10 @@
         <v>3.5</v>
       </c>
       <c r="U64" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W64" t="n">
         <v>8</v>
@@ -12085,10 +12085,10 @@
         <v>7</v>
       </c>
       <c r="Y64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA64" t="n">
         <v>11</v>
@@ -12118,16 +12118,16 @@
         <v>41</v>
       </c>
       <c r="AJ64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK64" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL64" t="n">
         <v>51</v>
       </c>
       <c r="AM64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN64" t="n">
         <v>3.4</v>
@@ -12142,7 +12142,7 @@
         <v>15</v>
       </c>
       <c r="AR64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS64" t="n">
         <v>101</v>
@@ -12151,7 +12151,7 @@
         <v>3.5</v>
       </c>
       <c r="AU64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV64" t="n">
         <v>51</v>
@@ -12413,22 +12413,22 @@
         <v>4</v>
       </c>
       <c r="M66" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O66" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P66" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R66" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S66" t="n">
         <v>1.4</v>
@@ -12577,22 +12577,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>3.35</v>
       </c>
       <c r="I67" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="J67" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="K67" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L67" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="M67" t="n">
         <v>1.05</v>
@@ -12613,10 +12613,10 @@
         <v>2.07</v>
       </c>
       <c r="S67" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T67" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="U67" t="n">
         <v>1.57</v>
@@ -12628,13 +12628,13 @@
         <v>8.75</v>
       </c>
       <c r="X67" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y67" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Z67" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA67" t="n">
         <v>13</v>
@@ -12658,28 +12658,28 @@
         <v>300</v>
       </c>
       <c r="AH67" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ67" t="n">
         <v>13.5</v>
       </c>
       <c r="AK67" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL67" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM67" t="n">
         <v>35</v>
       </c>
       <c r="AN67" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO67" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP67" t="n">
         <v>15.5</v>
@@ -12694,7 +12694,7 @@
         <v>175</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU67" t="n">
         <v>6.5</v>
@@ -12703,13 +12703,13 @@
         <v>50</v>
       </c>
       <c r="AW67" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AX67" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY67" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ67" t="n">
         <v>150</v>
@@ -12944,7 +12944,7 @@
         <v>1.73</v>
       </c>
       <c r="H69" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I69" t="n">
         <v>4.5</v>
@@ -12953,7 +12953,7 @@
         <v>2.3</v>
       </c>
       <c r="K69" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L69" t="n">
         <v>4.5</v>
@@ -12971,10 +12971,10 @@
         <v>4.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R69" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S69" t="n">
         <v>1.3</v>
@@ -12989,7 +12989,7 @@
         <v>2.2</v>
       </c>
       <c r="W69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X69" t="n">
         <v>9.5</v>
@@ -13019,10 +13019,10 @@
         <v>41</v>
       </c>
       <c r="AG69" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI69" t="n">
         <v>26</v>
@@ -13144,7 +13144,7 @@
         <v>1.04</v>
       </c>
       <c r="N70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O70" t="n">
         <v>1.22</v>
@@ -13305,13 +13305,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J71" t="n">
         <v>3.1</v>
@@ -13320,7 +13320,7 @@
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M71" t="n">
         <v>1.06</v>
@@ -13347,10 +13347,10 @@
         <v>2.63</v>
       </c>
       <c r="U71" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V71" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W71" t="n">
         <v>8</v>
@@ -13359,13 +13359,13 @@
         <v>11</v>
       </c>
       <c r="Y71" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z71" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA71" t="n">
         <v>21</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>19</v>
       </c>
       <c r="AB71" t="n">
         <v>29</v>
@@ -13386,10 +13386,10 @@
         <v>251</v>
       </c>
       <c r="AH71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ71" t="n">
         <v>11</v>
@@ -13404,7 +13404,7 @@
         <v>34</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO71" t="n">
         <v>13</v>
@@ -13431,7 +13431,7 @@
         <v>51</v>
       </c>
       <c r="AW71" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX71" t="n">
         <v>17</v>
@@ -13487,28 +13487,28 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="H72" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="J72" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="K72" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L72" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="M72" t="n">
         <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>7.95</v>
+        <v>7.8</v>
       </c>
       <c r="O72" t="n">
         <v>1.42</v>
@@ -13520,7 +13520,7 @@
         <v>2.2</v>
       </c>
       <c r="R72" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S72" t="n">
         <v>1.47</v>
@@ -13535,28 +13535,28 @@
         <v>1.7</v>
       </c>
       <c r="W72" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X72" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC72" t="n">
         <v>7.3</v>
       </c>
-      <c r="X72" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD72" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE72" t="n">
         <v>17</v>
@@ -13568,37 +13568,37 @@
         <v>900</v>
       </c>
       <c r="AH72" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AI72" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ72" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK72" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL72" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AM72" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN72" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO72" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ72" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AR72" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS72" t="n">
         <v>450</v>
@@ -13607,28 +13607,28 @@
         <v>2.27</v>
       </c>
       <c r="AU72" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV72" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW72" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
       <c r="AX72" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AY72" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ72" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA72" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB72" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC72" t="n">
         <v>81</v>
@@ -13672,19 +13672,19 @@
         <v>2.5</v>
       </c>
       <c r="H73" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J73" t="n">
         <v>3.15</v>
       </c>
       <c r="K73" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L73" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M73" t="n">
         <v>1.1</v>
@@ -13699,16 +13699,16 @@
         <v>2.32</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R73" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S73" t="n">
         <v>1.52</v>
       </c>
       <c r="T73" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U73" t="n">
         <v>1.93</v>
@@ -13720,7 +13720,7 @@
         <v>6.5</v>
       </c>
       <c r="X73" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y73" t="n">
         <v>9.75</v>
@@ -13750,25 +13750,25 @@
         <v>900</v>
       </c>
       <c r="AH73" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI73" t="n">
         <v>14</v>
       </c>
       <c r="AJ73" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK73" t="n">
         <v>40</v>
       </c>
       <c r="AL73" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM73" t="n">
         <v>50</v>
       </c>
       <c r="AN73" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AO73" t="n">
         <v>13.5</v>
@@ -13786,31 +13786,31 @@
         <v>350</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU73" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV73" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW73" t="n">
         <v>4.75</v>
       </c>
       <c r="AX73" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AY73" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ73" t="n">
         <v>100</v>
       </c>
       <c r="BA73" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB73" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC73" t="n">
         <v>81</v>
@@ -13851,13 +13851,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>3.2</v>
       </c>
       <c r="I74" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J74" t="n">
         <v>3</v>
@@ -13902,10 +13902,10 @@
         <v>6</v>
       </c>
       <c r="X74" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y74" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>10</v>
       </c>
       <c r="Z74" t="n">
         <v>21</v>
@@ -13935,7 +13935,7 @@
         <v>8</v>
       </c>
       <c r="AI74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ74" t="n">
         <v>13</v>
@@ -13956,7 +13956,7 @@
         <v>13</v>
       </c>
       <c r="AP74" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ74" t="n">
         <v>41</v>
@@ -13977,7 +13977,7 @@
         <v>67</v>
       </c>
       <c r="AW74" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX74" t="n">
         <v>21</v>
@@ -14063,10 +14063,10 @@
         <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R75" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S75" t="n">
         <v>1.36</v>
@@ -14215,22 +14215,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.85</v>
+        <v>5.4</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I76" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="J76" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="K76" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L76" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="M76" t="n">
         <v>1.04</v>
@@ -14248,7 +14248,7 @@
         <v>1.62</v>
       </c>
       <c r="R76" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S76" t="n">
         <v>1.31</v>
@@ -14257,100 +14257,100 @@
         <v>3.15</v>
       </c>
       <c r="U76" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V76" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W76" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="X76" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y76" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AA76" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AB76" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC76" t="n">
         <v>8.75</v>
       </c>
       <c r="AD76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AJ76" t="n">
         <v>8.25</v>
       </c>
-      <c r="AE76" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG76" t="n">
+      <c r="AK76" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS76" t="n">
         <v>400</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>350</v>
       </c>
       <c r="AT76" t="n">
         <v>3.15</v>
       </c>
       <c r="AU76" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AV76" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW76" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AX76" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AY76" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ76" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="BA76" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S6trun9F</t>
+          <t>xpWp1ROi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>WS Wanderers</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.35</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.78</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.32</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>8.9</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.87</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>2.57</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO2" t="n">
         <v>9</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AP2" t="n">
         <v>15</v>
       </c>
-      <c r="AM2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>27</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.6</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -798,10 +798,10 @@
         <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>17</v>
@@ -813,10 +813,10 @@
         <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -840,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
         <v>26</v>
@@ -849,13 +849,13 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC2" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
@@ -765,10 +765,10 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.4</v>
@@ -771,10 +771,10 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.5</v>
@@ -795,7 +795,7 @@
         <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -813,10 +813,10 @@
         <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -831,10 +831,10 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -843,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
@@ -879,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -756,7 +756,7 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -795,7 +795,7 @@
         <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -828,7 +828,7 @@
         <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -843,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -777,16 +777,16 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.5</v>
@@ -807,16 +807,16 @@
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -852,19 +852,19 @@
         <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -873,10 +873,10 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.6</v>
@@ -831,13 +831,13 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>23</v>
@@ -846,10 +846,10 @@
         <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -750,10 +750,10 @@
         <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>2.6</v>
@@ -768,7 +768,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -810,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>17</v>
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>23</v>
@@ -846,10 +846,10 @@
         <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xpWp1ROi</t>
+          <t>z1aTWoV1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +728,355 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AUSTRALIA - A-LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WS Wanderers</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.5</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX2" t="n">
         <v>34</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AY2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>prNuQMTF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W3" t="n">
+        <v>21</v>
+      </c>
+      <c r="X3" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB3" t="n">
         <v>101</v>
       </c>
-      <c r="AH2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BD3" t="n">
         <v>51</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,7 +935,7 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
         <v>7</v>
@@ -1077,6 +1077,188 @@
       </c>
       <c r="BD3" t="n">
         <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0W00ChFL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -935,7 +935,7 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J3" t="n">
         <v>7</v>
@@ -959,10 +959,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
         <v>6.25</v>
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -783,10 +783,10 @@
         <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>2.25</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -813,13 +813,13 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -864,13 +864,13 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>7.5</v>
@@ -1111,91 +1111,91 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
         <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.45</v>
       </c>
       <c r="P4" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
         <v>50</v>
       </c>
       <c r="AA4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="n">
         <v>55</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
@@ -1204,16 +1204,16 @@
         <v>19.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
         <v>40</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>32</v>
@@ -1222,7 +1222,7 @@
         <v>120</v>
       </c>
       <c r="AR4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS4" t="n">
         <v>500</v>
@@ -1231,28 +1231,28 @@
         <v>2.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
         <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.6</v>
@@ -950,7 +950,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -971,10 +971,10 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>21</v>
@@ -983,7 +983,7 @@
         <v>41</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
         <v>81</v>
@@ -992,22 +992,22 @@
         <v>51</v>
       </c>
       <c r="AB3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
         <v>8.5</v>
@@ -1016,7 +1016,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
         <v>9.5</v>
@@ -1028,7 +1028,7 @@
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -1061,7 +1061,7 @@
         <v>6.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>17</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0W00ChFL</t>
+          <t>nuwgfcy3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,172 +1092,354 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>1.17</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.12</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="L4" t="n">
-        <v>2.82</v>
+        <v>9.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>7.3</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>2.37</v>
+        <v>6.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>1.36</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.1</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.7</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.75</v>
+        <v>51</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.25</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.5</v>
+        <v>151</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AP4" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="AR4" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB4" t="n">
         <v>500</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>450</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
       </c>
       <c r="BD4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0W00ChFL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD5" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>prNuQMTF</t>
+          <t>jqzq6gq1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6.5</v>
+        <v>4.45</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>1.36</v>
+        <v>1.87</v>
       </c>
       <c r="J3" t="n">
-        <v>6.5</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.6</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y3" t="n">
         <v>15</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W3" t="n">
-        <v>21</v>
-      </c>
-      <c r="X3" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>21</v>
-      </c>
       <c r="Z3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>5.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="AE3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL3" t="n">
         <v>17</v>
       </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX3" t="n">
         <v>9.5</v>
       </c>
-      <c r="AL3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="BA3" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nuwgfcy3</t>
+          <t>dd5q4XDD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,354 +1092,718 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.17</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>12</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="Z4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW4" t="n">
         <v>4</v>
       </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AX4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>prNuQMTF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>21</v>
+      </c>
+      <c r="X5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nuwgfcy3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>0W00ChFL</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>08/11/2024</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>10:30</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ch. Odesa</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Vorskla Poltava</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G7" t="n">
         <v>3.45</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H7" t="n">
         <v>3.05</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I7" t="n">
         <v>2.12</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J7" t="n">
         <v>4.1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K7" t="n">
         <v>1.91</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L7" t="n">
         <v>2.82</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M7" t="n">
         <v>1.09</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N7" t="n">
         <v>7.3</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O7" t="n">
         <v>1.45</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P7" t="n">
         <v>2.37</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q7" t="n">
         <v>2.32</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R7" t="n">
         <v>1.47</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S7" t="n">
         <v>1.52</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T7" t="n">
         <v>2.22</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U7" t="n">
         <v>2.02</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V7" t="n">
         <v>1.62</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W7" t="n">
         <v>8</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X7" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y7" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z7" t="n">
         <v>50</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA7" t="n">
         <v>37</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB7" t="n">
         <v>55</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC7" t="n">
         <v>6.8</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD7" t="n">
         <v>6.1</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE7" t="n">
         <v>18.5</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF7" t="n">
         <v>120</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG7" t="n">
         <v>1000</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH7" t="n">
         <v>5.7</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI7" t="n">
         <v>8.75</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ7" t="n">
         <v>9.25</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK7" t="n">
         <v>19.5</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL7" t="n">
         <v>21</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM7" t="n">
         <v>40</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN7" t="n">
         <v>5.1</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO7" t="n">
         <v>20</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP7" t="n">
         <v>32</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ7" t="n">
         <v>120</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR7" t="n">
         <v>175</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS7" t="n">
         <v>500</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT7" t="n">
         <v>2.2</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU7" t="n">
         <v>8</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV7" t="n">
         <v>100</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW7" t="n">
         <v>3.8</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX7" t="n">
         <v>11.5</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY7" t="n">
         <v>25</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ7" t="n">
         <v>50</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA7" t="n">
         <v>110</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB7" t="n">
         <v>450</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC7" t="n">
         <v>81</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD7" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jqzq6gq1</t>
+          <t>GdxGfkN8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.45</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.87</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.9</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>9.75</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>23</v>
       </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK3" t="n">
-        <v>15.5</v>
+        <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>6.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dd5q4XDD</t>
+          <t>jqzq6gq1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
-        <v>4.05</v>
+        <v>4.65</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="L4" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AB4" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="AI4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX4" t="n">
         <v>10</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AY4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="n">
         <v>40</v>
       </c>
       <c r="BA4" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>prNuQMTF</t>
+          <t>dd5q4XDD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.33</v>
+        <v>2.15</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>2.07</v>
       </c>
       <c r="R5" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK5" t="n">
         <v>21</v>
       </c>
-      <c r="X5" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AL5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO5" t="n">
         <v>19</v>
       </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>34</v>
-      </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AQ5" t="n">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="AR5" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.5</v>
+        <v>4.05</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.5</v>
+        <v>11.25</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="BB5" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nuwgfcy3</t>
+          <t>prNuQMTF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.17</v>
       </c>
-      <c r="H6" t="n">
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
+        <v>21</v>
+      </c>
+      <c r="X6" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>7.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>9.5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="AL6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX6" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP6" t="n">
+      <c r="AY6" t="n">
         <v>17</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS6" t="n">
+      <c r="AZ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB6" t="n">
         <v>101</v>
       </c>
-      <c r="AT6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>500</v>
-      </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0W00ChFL</t>
+          <t>nuwgfcy3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,172 +1638,536 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.45</v>
+        <v>1.17</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>7.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.82</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>23</v>
       </c>
       <c r="N7" t="n">
-        <v>7.3</v>
+        <v>1.02</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>2.37</v>
+        <v>6.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.22</v>
+        <v>4.33</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>50</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.8</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.1</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.7</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.75</v>
+        <v>51</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.25</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>151</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AM7" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
         <v>500</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>450</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
       </c>
       <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hplZZSkl</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0W00ChFL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="J4" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.98</v>
       </c>
       <c r="L4" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1138,37 +1138,37 @@
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U4" t="n">
         <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="n">
         <v>45</v>
@@ -1180,7 +1180,7 @@
         <v>5.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1192,28 +1192,28 @@
         <v>800</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM4" t="n">
         <v>37</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP4" t="n">
         <v>32</v>
@@ -1222,7 +1222,7 @@
         <v>150</v>
       </c>
       <c r="AR4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS4" t="n">
         <v>450</v>
@@ -1237,16 +1237,16 @@
         <v>80</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AY4" t="n">
         <v>22</v>
       </c>
       <c r="AZ4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA4" t="n">
         <v>90</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1338,22 +1338,22 @@
         <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="n">
         <v>37</v>
@@ -1374,28 +1374,28 @@
         <v>600</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>30</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP5" t="n">
         <v>24</v>
@@ -1413,25 +1413,25 @@
         <v>2.67</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="AX5" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
         <v>45</v>
       </c>
       <c r="BA5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB5" t="n">
         <v>250</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nuwgfcy3</t>
+          <t>EyfzQk04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.17</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
         <v>9</v>
       </c>
-      <c r="M7" t="n">
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
         <v>23</v>
       </c>
-      <c r="N7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>12</v>
-      </c>
       <c r="AX7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
         <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hplZZSkl</t>
+          <t>nuwgfcy3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,145 +1830,145 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="H8" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
+        <v>21</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.02</v>
       </c>
-      <c r="N8" t="n">
-        <v>12</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="T8" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
         <v>7.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA8" t="n">
         <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS8" t="n">
         <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0W00ChFL</t>
+          <t>hplZZSkl</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,172 +2002,536 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.45</v>
+        <v>1.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>6.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.12</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>1.67</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="L9" t="n">
-        <v>2.82</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.3</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>2.37</v>
+        <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.32</v>
+        <v>1.44</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>2.63</v>
       </c>
       <c r="S9" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>50</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.1</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.7</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.75</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.25</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>5.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB9" t="n">
         <v>500</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>450</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
       </c>
       <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0W00ChFL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>hbD3rX4j</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Livyi Bereg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD11" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
@@ -867,10 +867,10 @@
         <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>7.5</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H8" t="n">
         <v>7.5</v>
@@ -1857,10 +1857,10 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.02</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.1</v>
@@ -1887,7 +1887,7 @@
         <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
         <v>7.5</v>
@@ -1902,22 +1902,22 @@
         <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
         <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
@@ -1932,10 +1932,10 @@
         <v>151</v>
       </c>
       <c r="AL8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
         <v>3.4</v>
@@ -1947,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR8" t="n">
         <v>29</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H9" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K9" t="n">
         <v>2.75</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.13</v>
@@ -2051,40 +2051,40 @@
         <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
         <v>7.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
         <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>21</v>
@@ -2099,16 +2099,16 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
@@ -2129,7 +2129,7 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR9" t="n">
         <v>34</v>
@@ -2138,7 +2138,7 @@
         <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
@@ -2147,7 +2147,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX9" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>6.5</v>
@@ -813,10 +813,10 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -831,7 +831,7 @@
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
         <v>8</v>
@@ -867,16 +867,16 @@
         <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -953,16 +953,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1296,31 +1296,31 @@
         <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L5" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Q5" t="n">
         <v>2.07</v>
@@ -1332,19 +1332,19 @@
         <v>1.42</v>
       </c>
       <c r="T5" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
         <v>11.25</v>
@@ -1359,34 +1359,34 @@
         <v>37</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
         <v>600</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AM5" t="n">
         <v>30</v>
@@ -1398,7 +1398,7 @@
         <v>18</v>
       </c>
       <c r="AP5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>90</v>
@@ -1410,28 +1410,28 @@
         <v>300</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV5" t="n">
         <v>55</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AX5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB5" t="n">
         <v>250</v>
@@ -1842,25 +1842,25 @@
         <v>1.14</v>
       </c>
       <c r="H8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
         <v>1.1</v>
@@ -1869,10 +1869,10 @@
         <v>6.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="S8" t="n">
         <v>1.2</v>
@@ -1881,22 +1881,22 @@
         <v>4.33</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
         <v>11</v>
@@ -1908,7 +1908,7 @@
         <v>23</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
         <v>29</v>
@@ -1932,10 +1932,10 @@
         <v>151</v>
       </c>
       <c r="AL8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM8" t="n">
         <v>67</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
       </c>
       <c r="AN8" t="n">
         <v>3.4</v>
@@ -1959,7 +1959,7 @@
         <v>4.33</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>2.12</v>
@@ -2215,46 +2215,46 @@
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="L10" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>12.5</v>
@@ -2266,46 +2266,46 @@
         <v>37</v>
       </c>
       <c r="AB10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="n">
         <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN10" t="n">
         <v>5.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>32</v>
@@ -2320,13 +2320,13 @@
         <v>500</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AV10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW10" t="n">
         <v>3.8</v>
@@ -2335,16 +2335,16 @@
         <v>11.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>50</v>
       </c>
       <c r="BA10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB10" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>z1aTWoV1</t>
+          <t>t6tXHGi3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>3.55</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>1.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>2.65</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD2" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>8</v>
-      </c>
       <c r="AE2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL2" t="n">
         <v>23</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AM2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>450</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>75</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD2" t="n">
         <v>81</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GdxGfkN8</t>
+          <t>lCgofDad</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Bregenz</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>2.62</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>2.35</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.03</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>10.25</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE3" t="n">
         <v>13</v>
       </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>26</v>
-      </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>12.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>9.25</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>17.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>6.9</v>
       </c>
       <c r="AV3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW3" t="n">
         <v>81</v>
       </c>
-      <c r="AW3" t="n">
-        <v>9</v>
-      </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>4.45</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>201</v>
+        <v>18.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>75</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jqzq6gq1</t>
+          <t>tlVdG3Gb</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="L4" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>2.57</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="T4" t="n">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF4" t="n">
         <v>70</v>
       </c>
-      <c r="AA4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>100</v>
       </c>
-      <c r="AG4" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AR4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>18.5</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="BA4" t="n">
         <v>37</v>
       </c>
-      <c r="AN4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>90</v>
-      </c>
       <c r="BB4" t="n">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dd5q4XDD</t>
+          <t>WMZobM0U</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Stripfing</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Kapfenberg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.27</v>
+        <v>2.57</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="T5" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="U5" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="V5" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AE5" t="n">
         <v>13.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="AI5" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.2</v>
+        <v>4.65</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR5" t="n">
         <v>90</v>
       </c>
-      <c r="AR5" t="n">
-        <v>120</v>
-      </c>
       <c r="AS5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV5" t="n">
         <v>55</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.2</v>
+        <v>81</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>4.6</v>
       </c>
       <c r="AY5" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="BA5" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB5" t="n">
         <v>80</v>
       </c>
-      <c r="BB5" t="n">
-        <v>250</v>
-      </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>prNuQMTF</t>
+          <t>z1aTWoV1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,165 +1461,165 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
         <v>7</v>
       </c>
-      <c r="H6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.83</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
         <v>21</v>
       </c>
-      <c r="X6" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>23</v>
       </c>
-      <c r="Z6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>126</v>
-      </c>
       <c r="AR6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.5</v>
+        <v>51</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EyfzQk04</t>
+          <t>GdxGfkN8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="R7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.53</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="n">
         <v>13</v>
       </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>19</v>
       </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>51</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
         <v>501</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>nuwgfcy3</t>
+          <t>zed3RX5L</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,170 +1820,170 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Lok. Zagreb</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.14</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.44</v>
       </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>10</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" t="n">
         <v>15</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" t="n">
-        <v>11</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
         <v>7</v>
       </c>
-      <c r="AA8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AI8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
         <v>29</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>23</v>
       </c>
-      <c r="AD8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="BA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB8" t="n">
         <v>67</v>
       </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>500</v>
-      </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BD8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hplZZSkl</t>
+          <t>jqzq6gq1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.22</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
-        <v>6.5</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>2.02</v>
       </c>
       <c r="J9" t="n">
-        <v>1.62</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.75</v>
+        <v>1.98</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>2.65</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>5.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>2.47</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU9" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AV9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>21</v>
       </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>151</v>
-      </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="BB9" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0W00ChFL</t>
+          <t>dd5q4XDD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,354 +2184,2538 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I10" t="n">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="L10" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>2.67</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="W10" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB10" t="n">
         <v>37</v>
       </c>
-      <c r="AB10" t="n">
-        <v>50</v>
-      </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
         <v>20</v>
       </c>
       <c r="AM10" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AN10" t="n">
         <v>5.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AR10" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="AS10" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.22</v>
+        <v>2.67</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV10" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.8</v>
+        <v>51</v>
       </c>
       <c r="AX10" t="n">
-        <v>11.5</v>
+        <v>4.25</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AZ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA10" t="n">
         <v>50</v>
       </c>
-      <c r="BA10" t="n">
-        <v>100</v>
-      </c>
       <c r="BB10" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>prNuQMTF</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
+        <v>21</v>
+      </c>
+      <c r="X11" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>f5vOfgTb</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>bZAS8OCT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Motor Lublin</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8tfVf1BM</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EyfzQk04</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Otelul</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>nuwgfcy3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Al Ettifaq</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W16" t="n">
+        <v>11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hplZZSkl</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>10</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MPujWpkD</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M18" t="n">
+        <v>21</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W18" t="n">
+        <v>26</v>
+      </c>
+      <c r="X18" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Yis7VrPE</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>9</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>biWciD0T</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>bX7GvzHN</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Igdir FK</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7</v>
+      </c>
+      <c r="X21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0W00ChFL</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>hbD3rX4j</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>08/11/2024</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Livyi Bereg</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Inhulets</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G23" t="n">
         <v>2.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H23" t="n">
         <v>2.72</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I23" t="n">
         <v>3.1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J23" t="n">
         <v>3.25</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K23" t="n">
         <v>1.83</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L23" t="n">
         <v>3.75</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M23" t="n">
         <v>1.11</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N23" t="n">
         <v>6.7</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O23" t="n">
         <v>1.5</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P23" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q23" t="n">
         <v>2.45</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R23" t="n">
         <v>1.42</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S23" t="n">
         <v>1.55</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T23" t="n">
         <v>2.15</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U23" t="n">
         <v>2</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V23" t="n">
         <v>1.65</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W23" t="n">
         <v>6</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X23" t="n">
         <v>10.75</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y23" t="n">
         <v>10.25</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z23" t="n">
         <v>28</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA23" t="n">
         <v>27</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB23" t="n">
         <v>45</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC23" t="n">
         <v>6</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD23" t="n">
         <v>5.5</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE23" t="n">
         <v>17</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF23" t="n">
         <v>110</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG23" t="n">
         <v>900</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH23" t="n">
         <v>7.3</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI23" t="n">
         <v>15</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ23" t="n">
         <v>11.5</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK23" t="n">
         <v>45</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL23" t="n">
         <v>32</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM23" t="n">
         <v>50</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN23" t="n">
         <v>4.15</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO23" t="n">
         <v>14.5</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP23" t="n">
         <v>27</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ23" t="n">
         <v>70</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR23" t="n">
         <v>150</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS23" t="n">
         <v>450</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT23" t="n">
         <v>2.15</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU23" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV23" t="n">
         <v>80</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX23" t="n">
         <v>4.75</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AY23" t="n">
         <v>18</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AZ23" t="n">
         <v>28</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="BA23" t="n">
         <v>100</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BB23" t="n">
         <v>150</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BC23" t="n">
         <v>450</v>
       </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="n">
+      <c r="BD23" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>z1aTWoV1</t>
+          <t>GdxGfkN8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,124 +1466,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
         <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1592,34 +1592,34 @@
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
         <v>51</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GdxGfkN8</t>
+          <t>zed3RX5L</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Lok. Zagreb</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
         <v>8.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY7" t="n">
         <v>13</v>
       </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AZ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC7" t="n">
         <v>201</v>
       </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV7" t="n">
+      <c r="BD7" t="n">
         <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>zed3RX5L</t>
+          <t>jqzq6gq1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lok. Zagreb</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="W8" t="n">
         <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AX8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>21</v>
       </c>
-      <c r="AL8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
+      <c r="BA8" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD8" t="n">
         <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jqzq6gq1</t>
+          <t>dd5q4XDD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,160 +2012,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.02</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.98</v>
-      </c>
       <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.65</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.47</v>
-      </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
         <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE9" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AF9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV9" t="n">
         <v>55</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>80</v>
       </c>
       <c r="AW9" t="n">
         <v>51</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="AY9" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AZ9" t="n">
         <v>21</v>
       </c>
       <c r="BA9" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="BB9" t="n">
         <v>90</v>
       </c>
       <c r="BC9" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BD9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dd5q4XDD</t>
+          <t>pUJDnl4C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.3</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.87</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.07</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="T10" t="n">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
         <v>11</v>
       </c>
-      <c r="Z10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF10" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB10" t="n">
         <v>51</v>
       </c>
-      <c r="AX10" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>80</v>
-      </c>
       <c r="BC10" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>prNuQMTF</t>
+          <t>r5NdjW4m</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,41 +2366,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.33</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2409,16 +2409,16 @@
         <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2427,112 +2427,112 @@
         <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
+        <v>11</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
         <v>21</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
         <v>41</v>
       </c>
-      <c r="Y11" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>126</v>
-      </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
         <v>3.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA11" t="n">
         <v>51</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="BB11" t="n">
         <v>51</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>41</v>
       </c>
       <c r="BC11" t="n">
         <v>101</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>2.5</v>
@@ -2773,16 +2773,16 @@
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2797,10 +2797,10 @@
         <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
@@ -2821,7 +2821,7 @@
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
         <v>51</v>
@@ -2839,10 +2839,10 @@
         <v>15</v>
       </c>
       <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
         <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
@@ -3113,46 +3113,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
         <v>2.25</v>
@@ -3167,22 +3167,22 @@
         <v>7</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
@@ -3194,34 +3194,34 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
         <v>51</v>
       </c>
       <c r="AL15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="n">
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
         <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
         <v>67</v>
@@ -3230,10 +3230,10 @@
         <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
         <v>81</v>
@@ -3245,13 +3245,13 @@
         <v>6.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
@@ -3295,19 +3295,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="H16" t="n">
         <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
         <v>1.44</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
         <v>10</v>
@@ -3319,10 +3319,10 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="n">
         <v>1.33</v>
@@ -3337,28 +3337,28 @@
         <v>4.33</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W16" t="n">
         <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA16" t="n">
         <v>11</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
         <v>23</v>
@@ -3373,16 +3373,16 @@
         <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
         <v>151</v>
@@ -3501,10 +3501,10 @@
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.4</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K18" t="n">
         <v>2.75</v>
@@ -3722,7 +3722,7 @@
         <v>51</v>
       </c>
       <c r="AB18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
         <v>21</v>
@@ -3746,19 +3746,19 @@
         <v>7.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL18" t="n">
         <v>11</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
@@ -3779,7 +3779,7 @@
         <v>4</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3797,13 +3797,13 @@
         <v>15</v>
       </c>
       <c r="BA18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB18" t="n">
         <v>34</v>
       </c>
       <c r="BC18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
         <v>2.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3865,22 +3865,22 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
         <v>1.62</v>
@@ -3892,13 +3892,13 @@
         <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
         <v>13</v>
@@ -3907,7 +3907,7 @@
         <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
@@ -3925,7 +3925,7 @@
         <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>13</v>
@@ -3937,7 +3937,7 @@
         <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
         <v>4</v>
@@ -3958,7 +3958,7 @@
         <v>101</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
         <v>7.5</v>
@@ -3973,16 +3973,16 @@
         <v>6</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC19" t="n">
         <v>151</v>
@@ -4053,7 +4053,7 @@
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
         <v>2.1</v>
@@ -4238,7 +4238,7 @@
         <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4387,37 +4387,37 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
         <v>2.95</v>
       </c>
       <c r="I22" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="J22" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="K22" t="n">
         <v>1.9</v>
       </c>
       <c r="L22" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>7.55</v>
+        <v>6.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R22" t="n">
         <v>1.5</v>
@@ -4429,37 +4429,37 @@
         <v>2.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W22" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="X22" t="n">
         <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD22" t="n">
         <v>5.8</v>
       </c>
       <c r="AE22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>100</v>
@@ -4468,37 +4468,37 @@
         <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK22" t="n">
         <v>19.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP22" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ22" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR22" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS22" t="n">
         <v>500</v>
@@ -4510,28 +4510,28 @@
         <v>7.6</v>
       </c>
       <c r="AV22" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW22" t="n">
         <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AY22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB22" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC22" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,19 +944,19 @@
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q3" t="n">
         <v>1.7</v>
@@ -974,10 +974,10 @@
         <v>1.6</v>
       </c>
       <c r="V3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -995,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF3" t="n">
         <v>50</v>
@@ -1028,13 +1028,13 @@
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
         <v>13.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>55</v>
@@ -1043,13 +1043,13 @@
         <v>80</v>
       </c>
       <c r="AS3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT3" t="n">
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV3" t="n">
         <v>55</v>
@@ -1070,7 +1070,7 @@
         <v>45</v>
       </c>
       <c r="BB3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BC3" t="n">
         <v>200</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jqzq6gq1</t>
+          <t>OOhT0JFs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.05</v>
-      </c>
       <c r="I8" t="n">
-        <v>2.02</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.47</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>1.72</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
         <v>9</v>
       </c>
-      <c r="X8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.9</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="AX8" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
       </c>
       <c r="BA8" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BC8" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dd5q4XDD</t>
+          <t>dpF4nwBG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.95</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>6.3</v>
+        <v>19</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>2.85</v>
+        <v>6</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="S9" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>2.65</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="W9" t="n">
+        <v>21</v>
+      </c>
+      <c r="X9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD9" t="n">
         <v>9</v>
       </c>
-      <c r="X9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AE9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.9</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AM9" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.65</v>
+        <v>3.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA9" t="n">
         <v>21</v>
       </c>
-      <c r="BA9" t="n">
-        <v>55</v>
-      </c>
       <c r="BB9" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="BC9" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pUJDnl4C</t>
+          <t>SpiyUUfk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>1.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
         <v>3.4</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
         <v>15</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>13</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="AI10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>19</v>
       </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AK10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY10" t="n">
         <v>34</v>
       </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
+      <c r="AZ10" t="n">
         <v>41</v>
       </c>
-      <c r="AW10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>17</v>
-      </c>
       <c r="BA10" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>r5NdjW4m</t>
+          <t>jqzq6gq1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>2.65</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
         <v>17</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="AF11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN11" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11</v>
-      </c>
-      <c r="X11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AO11" t="n">
         <v>23</v>
       </c>
-      <c r="AM11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>11</v>
-      </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.5</v>
+        <v>2.42</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AV11" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AW11" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AX11" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AZ11" t="n">
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="BB11" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="BC11" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>f5vOfgTb</t>
+          <t>dd5q4XDD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,170 +2548,170 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I12" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="T12" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
         <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AB12" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>21</v>
       </c>
-      <c r="AF12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>26</v>
-      </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="BB12" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BC12" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BD12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bZAS8OCT</t>
+          <t>IVyy8FEl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L13" t="n">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.05</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL13" t="n">
         <v>15</v>
       </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AM13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA13" t="n">
         <v>29</v>
       </c>
-      <c r="AC13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>81</v>
-      </c>
       <c r="BB13" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="BC13" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8tfVf1BM</t>
+          <t>pUJDnl4C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,128 +2912,128 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R14" t="n">
         <v>2.3</v>
       </c>
-      <c r="H14" t="n">
+      <c r="S14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T14" t="n">
         <v>3.4</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="U14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
         <v>11</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9</v>
-      </c>
-      <c r="X14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
         <v>21</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>26</v>
       </c>
       <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
         <v>11</v>
       </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH14" t="n">
         <v>11</v>
       </c>
       <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL14" t="n">
         <v>17</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3045,37 +3045,37 @@
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EyfzQk04</t>
+          <t>r5NdjW4m</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K15" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>17</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P15" t="n">
         <v>5.5</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.5</v>
       </c>
-      <c r="P15" t="n">
+      <c r="V15" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W15" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD15" t="n">
         <v>7</v>
       </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH15" t="n">
         <v>15</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR15" t="n">
         <v>41</v>
       </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
       <c r="AS15" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD15" t="n">
         <v>81</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nuwgfcy3</t>
+          <t>zXsMi8Xb</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,146 +3276,146 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.11</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="n">
         <v>19</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>10</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>15</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P16" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W16" t="n">
-        <v>11</v>
-      </c>
-      <c r="X16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>11</v>
       </c>
       <c r="AB16" t="n">
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
         <v>29</v>
       </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AL16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>41</v>
       </c>
-      <c r="AI16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>10</v>
-      </c>
       <c r="AR16" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3424,22 +3424,22 @@
         <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC16" t="n">
         <v>151</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>500</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hplZZSkl</t>
+          <t>f5vOfgTb</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.22</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W17" t="n">
+        <v>9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC17" t="n">
         <v>6.5</v>
       </c>
-      <c r="I17" t="n">
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI17" t="n">
         <v>8</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>13</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W17" t="n">
-        <v>10</v>
-      </c>
-      <c r="X17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AJ17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO17" t="n">
         <v>26</v>
       </c>
-      <c r="AC17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI17" t="n">
+      <c r="AP17" t="n">
         <v>41</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AQ17" t="n">
         <v>101</v>
       </c>
-      <c r="AL17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>12</v>
-      </c>
       <c r="AR17" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="AS17" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="AU17" t="n">
         <v>9.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY17" t="n">
         <v>11</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AZ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA17" t="n">
         <v>41</v>
       </c>
-      <c r="AZ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>151</v>
-      </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BC17" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MPujWpkD</t>
+          <t>bZAS8OCT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3645,141 +3645,141 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
         <v>8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M18" t="n">
-        <v>21</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W18" t="n">
-        <v>26</v>
-      </c>
-      <c r="X18" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3788,22 +3788,22 @@
         <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
-        <v>5.5</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Yis7VrPE</t>
+          <t>8tfVf1BM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3827,90 +3827,90 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L19" t="n">
         <v>3.6</v>
       </c>
-      <c r="I19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
         <v>9</v>
       </c>
       <c r="X19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y19" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y19" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -3922,79 +3922,79 @@
         <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL19" t="n">
         <v>23</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>41</v>
       </c>
-      <c r="AL19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>29</v>
-      </c>
       <c r="AR19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
         <v>7.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AX19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
         <v>67</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>81</v>
       </c>
       <c r="BC19" t="n">
         <v>151</v>
       </c>
       <c r="BD19" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>biWciD0T</t>
+          <t>xEqUj7uf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,65 +4004,65 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.36</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
         <v>1.91</v>
@@ -4074,28 +4074,28 @@
         <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
@@ -4104,79 +4104,79 @@
         <v>301</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM20" t="n">
         <v>41</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="AN20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
         <v>81</v>
       </c>
-      <c r="AL20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>41</v>
-      </c>
       <c r="AS20" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX20" t="n">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY20" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA20" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC20" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD20" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>bX7GvzHN</t>
+          <t>EyfzQk04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Igdir FK</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN21" t="n">
         <v>3.6</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="AO21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT21" t="n">
         <v>2.25</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7</v>
-      </c>
-      <c r="X21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y21" t="n">
+      <c r="AU21" t="n">
         <v>10</v>
       </c>
-      <c r="Z21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK21" t="n">
+      <c r="AV21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY21" t="n">
         <v>29</v>
       </c>
-      <c r="AL21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM21" t="n">
+      <c r="AZ21" t="n">
         <v>41</v>
       </c>
-      <c r="AN21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>29</v>
-      </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0W00ChFL</t>
+          <t>nuwgfcy3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,170 +4368,170 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Al Ettifaq</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.75</v>
+        <v>1.08</v>
       </c>
       <c r="H22" t="n">
-        <v>2.95</v>
+        <v>9.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.07</v>
+        <v>23</v>
       </c>
       <c r="J22" t="n">
-        <v>4.45</v>
+        <v>1.44</v>
       </c>
       <c r="K22" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>2.72</v>
+        <v>9.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="P22" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.27</v>
+        <v>1.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.7</v>
+        <v>29</v>
       </c>
       <c r="AD22" t="n">
-        <v>5.8</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AF22" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AH22" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8.75</v>
+        <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>19.5</v>
+        <v>151</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AM22" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AQ22" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="AR22" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="AS22" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AV22" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
         <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="BB22" t="n">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="BC22" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hbD3rX4j</t>
+          <t>hplZZSkl</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,172 +4550,1082 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="H23" t="n">
-        <v>2.72</v>
+        <v>6.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>1.62</v>
       </c>
       <c r="K23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.83</v>
       </c>
-      <c r="L23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
-        <v>10.75</v>
+        <v>7.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AD23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO23" t="n">
         <v>5.5</v>
       </c>
-      <c r="AE23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="AP23" t="n">
         <v>15</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>27</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AS23" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
         <v>81</v>
       </c>
       <c r="AX23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MPujWpkD</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>26</v>
+      </c>
+      <c r="X24" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Yis7VrPE</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>9</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>biWciD0T</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>7</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7</v>
+      </c>
+      <c r="X26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>bX7GvzHN</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Igdir FK</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX27" t="n">
         <v>4.75</v>
       </c>
-      <c r="AY23" t="n">
+      <c r="AY27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>hbD3rX4j</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Livyi Bereg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY28" t="n">
         <v>18</v>
       </c>
-      <c r="AZ23" t="n">
+      <c r="AZ28" t="n">
         <v>28</v>
       </c>
-      <c r="BA23" t="n">
+      <c r="BA28" t="n">
         <v>100</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BB28" t="n">
         <v>150</v>
       </c>
-      <c r="BC23" t="n">
+      <c r="BC28" t="n">
         <v>450</v>
       </c>
-      <c r="BD23" t="n">
+      <c r="BD28" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD28"/>
+  <dimension ref="A1:BD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H3" t="n">
         <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L3" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -965,10 +965,10 @@
         <v>2.07</v>
       </c>
       <c r="S3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U3" t="n">
         <v>1.6</v>
@@ -1001,7 +1001,7 @@
         <v>7.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>50</v>
@@ -1046,7 +1046,7 @@
         <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU3" t="n">
         <v>6.8</v>
@@ -1061,7 +1061,7 @@
         <v>4.45</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AZ3" t="n">
         <v>18.5</v>
@@ -1493,10 +1493,10 @@
         <v>8.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1505,10 +1505,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -2385,37 +2385,37 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="K11" t="n">
         <v>1.98</v>
       </c>
       <c r="L11" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
         <v>1.55</v>
@@ -2433,16 +2433,16 @@
         <v>1.72</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
         <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA11" t="n">
         <v>45</v>
@@ -2451,7 +2451,7 @@
         <v>55</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2466,28 +2466,28 @@
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.75</v>
       </c>
       <c r="AK11" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL11" t="n">
         <v>18.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>32</v>
@@ -2496,16 +2496,16 @@
         <v>150</v>
       </c>
       <c r="AR11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS11" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT11" t="n">
         <v>2.42</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
@@ -2514,22 +2514,22 @@
         <v>51</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AY11" t="n">
         <v>10.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BB11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC11" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD11" t="n">
         <v>51</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.37</v>
@@ -2597,10 +2597,10 @@
         <v>2.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
         <v>1.42</v>
@@ -2609,34 +2609,34 @@
         <v>2.65</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB12" t="n">
         <v>35</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE12" t="n">
         <v>13.5</v>
@@ -2645,19 +2645,19 @@
         <v>65</v>
       </c>
       <c r="AG12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.9</v>
+        <v>8.25</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
         <v>22</v>
@@ -2666,28 +2666,28 @@
         <v>32</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="AO12" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>22</v>
       </c>
       <c r="AQ12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT12" t="n">
         <v>2.65</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV12" t="n">
         <v>55</v>
@@ -2696,16 +2696,16 @@
         <v>51</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB12" t="n">
         <v>90</v>
@@ -3122,13 +3122,13 @@
         <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
         <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3137,10 +3137,10 @@
         <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
         <v>1.53</v>
@@ -3164,7 +3164,7 @@
         <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -3239,7 +3239,7 @@
         <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX15" t="n">
         <v>5.5</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3707,10 +3707,10 @@
         <v>1.91</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3731,7 +3731,7 @@
         <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
@@ -3740,19 +3740,19 @@
         <v>301</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
       </c>
       <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
         <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
@@ -3761,7 +3761,7 @@
         <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
@@ -3779,7 +3779,7 @@
         <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3794,7 +3794,7 @@
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
         <v>2.88</v>
@@ -3889,10 +3889,10 @@
         <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
         <v>9.5</v>
@@ -3919,7 +3919,7 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
         <v>11</v>
@@ -3928,7 +3928,7 @@
         <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>34</v>
@@ -4205,16 +4205,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
         <v>4.75</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
         <v>1.95</v>
@@ -4223,10 +4223,10 @@
         <v>5.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
@@ -4262,7 +4262,7 @@
         <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
         <v>19</v>
@@ -4286,10 +4286,10 @@
         <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>17</v>
@@ -4307,13 +4307,13 @@
         <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="n">
         <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR21" t="n">
         <v>67</v>
@@ -4343,7 +4343,7 @@
         <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB21" t="n">
         <v>151</v>
@@ -4396,88 +4396,88 @@
         <v>23</v>
       </c>
       <c r="J22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="n">
+        <v>23</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1.44</v>
       </c>
-      <c r="K22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N22" t="n">
-        <v>15</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
         <v>7</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W22" t="n">
-        <v>11</v>
-      </c>
-      <c r="X22" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AA22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD22" t="n">
         <v>19</v>
       </c>
       <c r="AE22" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG22" t="n">
         <v>700</v>
       </c>
       <c r="AH22" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
         <v>51</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL22" t="n">
         <v>67</v>
@@ -4486,31 +4486,31 @@
         <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS22" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT22" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
         <v>81</v>
@@ -4522,7 +4522,7 @@
         <v>51</v>
       </c>
       <c r="AZ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
         <v>151</v>
@@ -4751,34 +4751,34 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K24" t="n">
         <v>2.75</v>
       </c>
       <c r="L24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="n">
         <v>1.4</v>
@@ -4793,19 +4793,19 @@
         <v>4</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W24" t="n">
         <v>26</v>
       </c>
       <c r="X24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
         <v>101</v>
@@ -4814,7 +4814,7 @@
         <v>51</v>
       </c>
       <c r="AB24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
         <v>21</v>
@@ -4823,7 +4823,7 @@
         <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>51</v>
@@ -4835,22 +4835,22 @@
         <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL24" t="n">
         <v>11</v>
       </c>
       <c r="AM24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
         <v>41</v>
@@ -4871,7 +4871,7 @@
         <v>4</v>
       </c>
       <c r="AU24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4880,7 +4880,7 @@
         <v>81</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY24" t="n">
         <v>5.5</v>
@@ -4889,13 +4889,13 @@
         <v>15</v>
       </c>
       <c r="BA24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BC24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD24" t="n">
         <v>81</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Yis7VrPE</t>
+          <t>OnJJkFJb</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L25" t="n">
         <v>4.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="R25" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S25" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="T25" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V25" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="W25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC25" t="n">
         <v>9</v>
       </c>
-      <c r="X25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AF25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG25" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AH25" t="n">
         <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AN25" t="n">
         <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR25" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AS25" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AW25" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="AX25" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AY25" t="n">
         <v>21</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA25" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="BB25" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="BC25" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BD25" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>biWciD0T</t>
+          <t>Yis7VrPE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5101,36 +5101,36 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -5145,10 +5145,10 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S26" t="n">
         <v>1.33</v>
@@ -5157,76 +5157,76 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X26" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
         <v>12</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK26" t="n">
         <v>41</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>81</v>
-      </c>
       <c r="AL26" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AM26" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AR26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
         <v>126</v>
@@ -5235,40 +5235,40 @@
         <v>3.25</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AX26" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AY26" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA26" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC26" t="n">
         <v>151</v>
       </c>
-      <c r="BB26" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC26" t="n">
+      <c r="BD26" t="n">
         <v>301</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bX7GvzHN</t>
+          <t>biWciD0T</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5288,55 +5288,55 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Igdir FK</t>
+          <t>Erokspor</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K27" t="n">
         <v>2.4</v>
       </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2</v>
-      </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T27" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U27" t="n">
         <v>1.91</v>
@@ -5348,28 +5348,28 @@
         <v>7</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB27" t="n">
         <v>26</v>
       </c>
-      <c r="AA27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>34</v>
-      </c>
       <c r="AC27" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
         <v>51</v>
@@ -5378,70 +5378,70 @@
         <v>301</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AM27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR27" t="n">
         <v>41</v>
       </c>
-      <c r="AN27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>81</v>
-      </c>
       <c r="AS27" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW27" t="n">
         <v>126</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA27" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB27" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC27" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD27" t="n">
         <v>126</v>
@@ -5450,182 +5450,364 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>bX7GvzHN</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Igdir FK</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8</v>
+      </c>
+      <c r="X28" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>hbD3rX4j</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>08/11/2024</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Livyi Bereg</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Inhulets</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>2.5</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>2.72</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>3.1</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J29" t="n">
         <v>3.25</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K29" t="n">
         <v>1.83</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>3.75</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M29" t="n">
         <v>1.11</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N29" t="n">
         <v>6.65</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O29" t="n">
         <v>1.5</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P29" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q29" t="n">
         <v>2.45</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R29" t="n">
         <v>1.42</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S29" t="n">
         <v>1.55</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T29" t="n">
         <v>2.15</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U29" t="n">
         <v>2</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V29" t="n">
         <v>1.65</v>
       </c>
-      <c r="W28" t="n">
+      <c r="W29" t="n">
         <v>6</v>
       </c>
-      <c r="X28" t="n">
+      <c r="X29" t="n">
         <v>10.75</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Y29" t="n">
         <v>10.25</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="Z29" t="n">
         <v>28</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AA29" t="n">
         <v>27</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AB29" t="n">
         <v>45</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AC29" t="n">
         <v>6</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AD29" t="n">
         <v>5.5</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AE29" t="n">
         <v>17</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AF29" t="n">
         <v>110</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AG29" t="n">
         <v>900</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AH29" t="n">
         <v>7.3</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AI29" t="n">
         <v>15</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AJ29" t="n">
         <v>11.5</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AK29" t="n">
         <v>45</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AL29" t="n">
         <v>32</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AM29" t="n">
         <v>50</v>
       </c>
-      <c r="AN28" t="n">
+      <c r="AN29" t="n">
         <v>4.15</v>
       </c>
-      <c r="AO28" t="n">
+      <c r="AO29" t="n">
         <v>14.5</v>
       </c>
-      <c r="AP28" t="n">
+      <c r="AP29" t="n">
         <v>27</v>
       </c>
-      <c r="AQ28" t="n">
+      <c r="AQ29" t="n">
         <v>70</v>
       </c>
-      <c r="AR28" t="n">
+      <c r="AR29" t="n">
         <v>150</v>
       </c>
-      <c r="AS28" t="n">
+      <c r="AS29" t="n">
         <v>450</v>
       </c>
-      <c r="AT28" t="n">
+      <c r="AT29" t="n">
         <v>2.15</v>
       </c>
-      <c r="AU28" t="n">
+      <c r="AU29" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV28" t="n">
+      <c r="AV29" t="n">
         <v>80</v>
       </c>
-      <c r="AW28" t="n">
+      <c r="AW29" t="n">
         <v>81</v>
       </c>
-      <c r="AX28" t="n">
+      <c r="AX29" t="n">
         <v>4.75</v>
       </c>
-      <c r="AY28" t="n">
+      <c r="AY29" t="n">
         <v>18</v>
       </c>
-      <c r="AZ28" t="n">
+      <c r="AZ29" t="n">
         <v>28</v>
       </c>
-      <c r="BA28" t="n">
+      <c r="BA29" t="n">
         <v>100</v>
       </c>
-      <c r="BB28" t="n">
+      <c r="BB29" t="n">
         <v>150</v>
       </c>
-      <c r="BC28" t="n">
+      <c r="BC29" t="n">
         <v>450</v>
       </c>
-      <c r="BD28" t="n">
+      <c r="BD29" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD60"/>
+  <dimension ref="A1:BD59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>2.63</v>
@@ -771,16 +771,16 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -816,10 +816,10 @@
         <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -834,7 +834,7 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>81</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="H7" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.95</v>
       </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
       <c r="J7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K7" t="n">
         <v>2.47</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.45</v>
-      </c>
       <c r="L7" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1684,52 +1684,52 @@
         <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R7" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="S7" t="n">
         <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="V7" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="W7" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>9.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>35</v>
@@ -1738,67 +1738,67 @@
         <v>175</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="AK7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR7" t="n">
         <v>40</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>45</v>
       </c>
       <c r="AS7" t="n">
         <v>120</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AZ7" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BA7" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BB7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC7" t="n">
         <v>500</v>
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
         <v>3.8</v>
@@ -1887,31 +1887,31 @@
         <v>2.2</v>
       </c>
       <c r="W8" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y8" t="n">
         <v>11</v>
       </c>
-      <c r="X8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10.25</v>
-      </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
         <v>50</v>
@@ -1920,37 +1920,37 @@
         <v>300</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM8" t="n">
         <v>22</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AN8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO8" t="n">
         <v>16.5</v>
       </c>
-      <c r="AM8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ8" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AR8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS8" t="n">
         <v>250</v>
@@ -1959,25 +1959,25 @@
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
         <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="AX8" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="BA8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
         <v>200</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
         <v>2.12</v>
       </c>
       <c r="L9" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2060,7 +2060,7 @@
         <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U9" t="n">
         <v>1.78</v>
@@ -2069,22 +2069,22 @@
         <v>1.93</v>
       </c>
       <c r="W9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
         <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB9" t="n">
         <v>37</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>35</v>
       </c>
       <c r="AC9" t="n">
         <v>7</v>
@@ -2102,64 +2102,64 @@
         <v>600</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS9" t="n">
         <v>300</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU9" t="n">
         <v>7.1</v>
       </c>
       <c r="AV9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AX9" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AY9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
         <v>45</v>
       </c>
       <c r="BA9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB9" t="n">
         <v>250</v>
@@ -2206,25 +2206,25 @@
         <v>2.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.32</v>
@@ -2233,16 +2233,16 @@
         <v>3.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
         <v>1.38</v>
       </c>
       <c r="T10" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="U10" t="n">
         <v>1.72</v>
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -2260,19 +2260,19 @@
         <v>9.75</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE10" t="n">
         <v>13.5</v>
@@ -2287,13 +2287,13 @@
         <v>8.75</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>9.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
@@ -2302,7 +2302,7 @@
         <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO10" t="n">
         <v>14</v>
@@ -2320,7 +2320,7 @@
         <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU10" t="n">
         <v>6.7</v>
@@ -2335,7 +2335,7 @@
         <v>13.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ10" t="n">
         <v>55</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2800,7 +2800,7 @@
         <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
@@ -2812,7 +2812,7 @@
         <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -3161,16 +3161,16 @@
         <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="n">
         <v>29</v>
@@ -3179,7 +3179,7 @@
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3197,25 +3197,25 @@
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>19</v>
       </c>
       <c r="AM15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
@@ -3224,7 +3224,7 @@
         <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
         <v>251</v>
@@ -3239,10 +3239,10 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
@@ -3254,7 +3254,7 @@
         <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3319,10 +3319,10 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>1.7</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H18" t="n">
         <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3695,46 +3695,46 @@
         <v>1.88</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="n">
         <v>351</v>
@@ -3743,64 +3743,64 @@
         <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM18" t="n">
         <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY18" t="n">
         <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC18" t="n">
         <v>126</v>
@@ -4023,79 +4023,79 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="J20" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.25</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U20" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V20" t="n">
         <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="X20" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB20" t="n">
         <v>60</v>
       </c>
-      <c r="AB20" t="n">
-        <v>65</v>
-      </c>
       <c r="AC20" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AE20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF20" t="n">
         <v>100</v>
@@ -4104,31 +4104,31 @@
         <v>900</v>
       </c>
       <c r="AH20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM20" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AQ20" t="n">
         <v>200</v>
@@ -4140,28 +4140,28 @@
         <v>500</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV20" t="n">
         <v>80</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AY20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ20" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="BA20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB20" t="n">
         <v>300</v>
@@ -4205,16 +4205,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K21" t="n">
         <v>2.25</v>
@@ -4277,7 +4277,7 @@
         <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
@@ -4286,7 +4286,7 @@
         <v>251</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4313,19 +4313,19 @@
         <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
         <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT21" t="n">
         <v>3</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4340,7 +4340,7 @@
         <v>34</v>
       </c>
       <c r="AZ21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA21" t="n">
         <v>101</v>
@@ -4435,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
         <v>10</v>
@@ -4459,10 +4459,10 @@
         <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
         <v>201</v>
@@ -4471,7 +4471,7 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
         <v>12</v>
@@ -4593,16 +4593,16 @@
         <v>6.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S23" t="n">
         <v>1.57</v>
@@ -4951,10 +4951,10 @@
         <v>3.25</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -4963,10 +4963,10 @@
         <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -5661,19 +5661,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
         <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L29" t="n">
         <v>2.75</v>
@@ -5697,16 +5697,16 @@
         <v>2.25</v>
       </c>
       <c r="S29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V29" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W29" t="n">
         <v>13</v>
@@ -5721,7 +5721,7 @@
         <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
         <v>26</v>
@@ -5778,7 +5778,7 @@
         <v>126</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5793,7 +5793,7 @@
         <v>11</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>34</v>
@@ -5843,55 +5843,55 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.53</v>
       </c>
-      <c r="R30" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.44</v>
-      </c>
       <c r="V30" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
@@ -5900,19 +5900,19 @@
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
         <v>15</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
@@ -5924,10 +5924,10 @@
         <v>101</v>
       </c>
       <c r="AH30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
         <v>12</v>
@@ -5939,28 +5939,28 @@
         <v>23</v>
       </c>
       <c r="AM30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN30" t="n">
         <v>4.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ30" t="n">
         <v>34</v>
       </c>
       <c r="AR30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU30" t="n">
         <v>7</v>
@@ -5972,7 +5972,7 @@
         <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>21</v>
@@ -5984,10 +5984,10 @@
         <v>51</v>
       </c>
       <c r="BB30" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC30" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD30" t="n">
         <v>81</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
         <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
@@ -6243,10 +6243,10 @@
         <v>2.08</v>
       </c>
       <c r="S32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U32" t="n">
         <v>1.62</v>
@@ -6258,7 +6258,7 @@
         <v>10</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
         <v>10</v>
@@ -6273,7 +6273,7 @@
         <v>26</v>
       </c>
       <c r="AC32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
         <v>7</v>
@@ -6300,7 +6300,7 @@
         <v>26</v>
       </c>
       <c r="AL32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM32" t="n">
         <v>26</v>
@@ -6324,19 +6324,19 @@
         <v>126</v>
       </c>
       <c r="AT32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU32" t="n">
         <v>7.5</v>
       </c>
       <c r="AV32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW32" t="n">
         <v>4.75</v>
       </c>
       <c r="AX32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY32" t="n">
         <v>21</v>
@@ -6419,10 +6419,10 @@
         <v>3.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R33" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S33" t="n">
         <v>1.44</v>
@@ -6431,10 +6431,10 @@
         <v>2.63</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V33" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W33" t="n">
         <v>9</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L34" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
@@ -6604,7 +6604,7 @@
         <v>2.6</v>
       </c>
       <c r="R34" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S34" t="n">
         <v>1.57</v>
@@ -6613,34 +6613,34 @@
         <v>2.25</v>
       </c>
       <c r="U34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
         <v>41</v>
       </c>
       <c r="AA34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC34" t="n">
         <v>6.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE34" t="n">
         <v>21</v>
@@ -6655,13 +6655,13 @@
         <v>5.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="n">
         <v>21</v>
@@ -6670,19 +6670,19 @@
         <v>41</v>
       </c>
       <c r="AN34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ34" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS34" t="n">
         <v>351</v>
@@ -6691,16 +6691,16 @@
         <v>2.25</v>
       </c>
       <c r="AU34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV34" t="n">
         <v>81</v>
       </c>
       <c r="AW34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY34" t="n">
         <v>29</v>
@@ -6759,7 +6759,7 @@
         <v>2.9</v>
       </c>
       <c r="I35" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="J35" t="n">
         <v>3.6</v>
@@ -6786,7 +6786,7 @@
         <v>2.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S35" t="n">
         <v>1.57</v>
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>5.25</v>
@@ -6956,7 +6956,7 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O36" t="n">
         <v>1.1</v>
@@ -6965,7 +6965,7 @@
         <v>7</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R36" t="n">
         <v>3.4</v>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H37" t="n">
         <v>4.75</v>
@@ -7481,19 +7481,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J39" t="n">
         <v>2.05</v>
       </c>
       <c r="K39" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L39" t="n">
         <v>5</v>
@@ -7532,13 +7532,13 @@
         <v>10</v>
       </c>
       <c r="X39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y39" t="n">
         <v>8.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA39" t="n">
         <v>11</v>
@@ -7565,7 +7565,7 @@
         <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
         <v>17</v>
@@ -7574,13 +7574,13 @@
         <v>51</v>
       </c>
       <c r="AL39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM39" t="n">
         <v>34</v>
       </c>
       <c r="AN39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO39" t="n">
         <v>7.5</v>
@@ -7610,7 +7610,7 @@
         <v>7</v>
       </c>
       <c r="AX39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY39" t="n">
         <v>26</v>
@@ -8409,28 +8409,28 @@
         <v>4.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R44" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S44" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T44" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U44" t="n">
         <v>1.91</v>
@@ -8451,7 +8451,7 @@
         <v>15</v>
       </c>
       <c r="AA44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB44" t="n">
         <v>29</v>
@@ -8508,10 +8508,10 @@
         <v>151</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV44" t="n">
         <v>51</v>
@@ -8603,7 +8603,7 @@
         <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R45" t="n">
         <v>2.3</v>
@@ -8958,7 +8958,7 @@
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
         <v>1.22</v>
@@ -8967,10 +8967,10 @@
         <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="R47" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S47" t="n">
         <v>1.33</v>
@@ -9125,22 +9125,22 @@
         <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J48" t="n">
         <v>3.1</v>
       </c>
       <c r="K48" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.44</v>
@@ -9155,10 +9155,10 @@
         <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T48" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U48" t="n">
         <v>2.05</v>
@@ -9236,7 +9236,7 @@
         <v>251</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU48" t="n">
         <v>9</v>
@@ -9301,16 +9301,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I49" t="n">
         <v>3</v>
       </c>
-      <c r="I49" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J49" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K49" t="n">
         <v>2</v>
@@ -9322,7 +9322,7 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O49" t="n">
         <v>1.4</v>
@@ -9343,10 +9343,10 @@
         <v>2.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W49" t="n">
         <v>7</v>
@@ -9361,7 +9361,7 @@
         <v>23</v>
       </c>
       <c r="AA49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB49" t="n">
         <v>34</v>
@@ -9391,10 +9391,10 @@
         <v>12</v>
       </c>
       <c r="AK49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL49" t="n">
         <v>29</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>26</v>
       </c>
       <c r="AM49" t="n">
         <v>41</v>
@@ -9406,7 +9406,7 @@
         <v>15</v>
       </c>
       <c r="AP49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ49" t="n">
         <v>51</v>
@@ -9430,7 +9430,7 @@
         <v>4.75</v>
       </c>
       <c r="AX49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY49" t="n">
         <v>29</v>
@@ -9454,7 +9454,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EyfzQk04</t>
+          <t>tWDaDCGb</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9474,37 +9474,37 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I50" t="n">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="J50" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
         <v>1.95</v>
       </c>
       <c r="L50" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="M50" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
@@ -9513,10 +9513,10 @@
         <v>2.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R50" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S50" t="n">
         <v>1.57</v>
@@ -9525,28 +9525,28 @@
         <v>2.25</v>
       </c>
       <c r="U50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V50" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W50" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="X50" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Z50" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA50" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AB50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC50" t="n">
         <v>6.5</v>
@@ -9561,43 +9561,43 @@
         <v>81</v>
       </c>
       <c r="AG50" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH50" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AJ50" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK50" t="n">
         <v>17</v>
       </c>
-      <c r="AK50" t="n">
-        <v>51</v>
-      </c>
       <c r="AL50" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AM50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AO50" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AP50" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ50" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AR50" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AS50" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT50" t="n">
         <v>2.25</v>
@@ -9609,22 +9609,22 @@
         <v>81</v>
       </c>
       <c r="AW50" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AX50" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AY50" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AZ50" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA50" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB50" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC50" t="n">
         <v>51</v>
@@ -9636,7 +9636,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>tWDaDCGb</t>
+          <t>MPujWpkD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -9646,179 +9646,179 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="J51" t="n">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="K51" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N51" t="n">
+        <v>15</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V51" t="n">
         <v>1.91</v>
       </c>
-      <c r="L51" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N51" t="n">
-        <v>7</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U51" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W51" t="n">
+        <v>29</v>
+      </c>
+      <c r="X51" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI51" t="n">
         <v>8.5</v>
       </c>
-      <c r="X51" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y51" t="n">
+      <c r="AJ51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY51" t="n">
         <v>15</v>
       </c>
-      <c r="Z51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF51" t="n">
+      <c r="AZ51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB51" t="n">
         <v>81</v>
       </c>
-      <c r="AG51" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ51" t="n">
+      <c r="BC51" t="n">
         <v>81</v>
       </c>
-      <c r="AR51" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV51" t="n">
+      <c r="BD51" t="n">
         <v>81</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MPujWpkD</t>
+          <t>jD9xvcHG</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -9828,167 +9828,167 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N52" t="n">
+        <v>11</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2</v>
+      </c>
+      <c r="W52" t="n">
+        <v>8</v>
+      </c>
+      <c r="X52" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD52" t="n">
         <v>6.5</v>
       </c>
-      <c r="I52" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="J52" t="n">
+      <c r="AE52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU52" t="n">
         <v>8</v>
       </c>
-      <c r="K52" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N52" t="n">
-        <v>13</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P52" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T52" t="n">
-        <v>4</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W52" t="n">
-        <v>29</v>
-      </c>
-      <c r="X52" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y52" t="n">
+      <c r="AV52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY52" t="n">
         <v>26</v>
       </c>
-      <c r="Z52" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ52" t="n">
+      <c r="AZ52" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB52" t="n">
         <v>151</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>81</v>
       </c>
       <c r="BC52" t="n">
         <v>81</v>
@@ -10000,7 +10000,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jD9xvcHG</t>
+          <t>OnJJkFJb</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10010,179 +10010,179 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I53" t="n">
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="J53" t="n">
-        <v>2.63</v>
+        <v>2.27</v>
       </c>
       <c r="K53" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="M53" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="P53" t="n">
-        <v>3.5</v>
+        <v>4.35</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="R53" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="S53" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T53" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="U53" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="W53" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="X53" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y53" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z53" t="n">
         <v>17</v>
       </c>
       <c r="AA53" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AB53" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI53" t="n">
         <v>26</v>
       </c>
-      <c r="AC53" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK53" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AL53" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM53" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AN53" t="n">
         <v>4</v>
       </c>
       <c r="AO53" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AQ53" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AR53" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AS53" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="AU53" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="AV53" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW53" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="AX53" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AY53" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ53" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="BA53" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="BB53" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC53" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD53" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>OnJJkFJb</t>
+          <t>WSlPNaVs</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10192,7 +10192,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -10202,160 +10202,160 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="H54" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I54" t="n">
-        <v>4.05</v>
+        <v>2.52</v>
       </c>
       <c r="J54" t="n">
-        <v>2.27</v>
+        <v>2.82</v>
       </c>
       <c r="K54" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="L54" t="n">
-        <v>4.3</v>
+        <v>2.95</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P54" t="n">
-        <v>4.35</v>
+        <v>4.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="R54" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="S54" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T54" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="U54" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V54" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="W54" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="X54" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="Y54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD54" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z54" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB54" t="n">
+      <c r="AE54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL54" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC54" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE54" t="n">
+      <c r="AM54" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO54" t="n">
         <v>11.75</v>
       </c>
-      <c r="AF54" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AP54" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ54" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AR54" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AS54" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AU54" t="n">
         <v>6.4</v>
       </c>
       <c r="AV54" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ54" t="n">
         <v>45</v>
       </c>
-      <c r="AW54" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>110</v>
-      </c>
       <c r="BA54" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="BB54" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="BC54" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD54" t="n">
         <v>51</v>
@@ -10364,7 +10364,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>WSlPNaVs</t>
+          <t>Yis7VrPE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10374,179 +10374,179 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="H55" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>2.52</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.82</v>
+        <v>2.38</v>
       </c>
       <c r="K55" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L55" t="n">
-        <v>2.95</v>
+        <v>4.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N55" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="O55" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="P55" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="R55" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="S55" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="T55" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U55" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="V55" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="W55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X55" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA55" t="n">
         <v>13</v>
       </c>
-      <c r="X55" t="n">
+      <c r="AB55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH55" t="n">
         <v>15</v>
       </c>
-      <c r="Y55" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z55" t="n">
+      <c r="AI55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY55" t="n">
         <v>26</v>
       </c>
-      <c r="AA55" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AZ55" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BA55" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BB55" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BC55" t="n">
-        <v>500</v>
+        <v>276</v>
       </c>
       <c r="BD55" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Yis7VrPE</t>
+          <t>biWciD0T</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10561,42 +10561,42 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Erokspor</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="H56" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="I56" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="K56" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L56" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O56" t="n">
         <v>1.2</v>
@@ -10605,10 +10605,10 @@
         <v>4.33</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R56" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S56" t="n">
         <v>1.33</v>
@@ -10617,118 +10617,118 @@
         <v>3.25</v>
       </c>
       <c r="U56" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="W56" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y56" t="n">
         <v>9</v>
       </c>
-      <c r="Y56" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z56" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AA56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB56" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ56" t="n">
         <v>23</v>
       </c>
-      <c r="AC56" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>15</v>
-      </c>
       <c r="AK56" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AL56" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM56" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN56" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO56" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AP56" t="n">
         <v>17</v>
       </c>
       <c r="AQ56" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AR56" t="n">
         <v>41</v>
       </c>
       <c r="AS56" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT56" t="n">
         <v>3.25</v>
       </c>
       <c r="AU56" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV56" t="n">
         <v>51</v>
       </c>
       <c r="AW56" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX56" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AY56" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ56" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA56" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB56" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC56" t="n">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="BD56" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>biWciD0T</t>
+          <t>bX7GvzHN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -10748,55 +10748,55 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Igdir FK</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.36</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="J57" t="n">
-        <v>1.91</v>
+        <v>3.75</v>
       </c>
       <c r="K57" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M57" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="S57" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T57" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57" t="n">
         <v>1.91</v>
@@ -10805,100 +10805,100 @@
         <v>1.8</v>
       </c>
       <c r="W57" t="n">
+        <v>8</v>
+      </c>
+      <c r="X57" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH57" t="n">
         <v>7</v>
       </c>
-      <c r="X57" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y57" t="n">
+      <c r="AI57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU57" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z57" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB57" t="n">
+      <c r="AV57" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY57" t="n">
         <v>26</v>
       </c>
-      <c r="AC57" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ57" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA57" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB57" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC57" t="n">
         <v>126</v>
@@ -10910,7 +10910,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bX7GvzHN</t>
+          <t>EaYcijro</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -10920,179 +10920,179 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Igdir FK</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="J58" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L58" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="M58" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N58" t="n">
+        <v>7</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W58" t="n">
+        <v>6</v>
+      </c>
+      <c r="X58" t="n">
         <v>9</v>
       </c>
-      <c r="O58" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W58" t="n">
+      <c r="Y58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH58" t="n">
         <v>8</v>
       </c>
-      <c r="X58" t="n">
+      <c r="AI58" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>13</v>
       </c>
-      <c r="Y58" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB58" t="n">
+      <c r="AK58" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL58" t="n">
         <v>34</v>
       </c>
-      <c r="AC58" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>21</v>
-      </c>
       <c r="AM58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN58" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO58" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP58" t="n">
         <v>26</v>
       </c>
       <c r="AQ58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR58" t="n">
         <v>81</v>
       </c>
       <c r="AS58" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW58" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX58" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY58" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA58" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB58" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC58" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD58" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>hbD3rX4j</t>
+          <t>4j4y5VfK</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -11102,354 +11102,172 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.62</v>
+        <v>4.85</v>
       </c>
       <c r="H59" t="n">
-        <v>2.72</v>
+        <v>3.85</v>
       </c>
       <c r="I59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N59" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T59" t="n">
         <v>2.95</v>
       </c>
-      <c r="J59" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N59" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P59" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R59" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S59" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T59" t="n">
-        <v>2.15</v>
-      </c>
       <c r="U59" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="V59" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="W59" t="n">
-        <v>6.2</v>
+        <v>14.5</v>
       </c>
       <c r="X59" t="n">
-        <v>11.75</v>
+        <v>30</v>
       </c>
       <c r="Y59" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="Z59" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AA59" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AB59" t="n">
         <v>45</v>
       </c>
       <c r="AC59" t="n">
-        <v>5.7</v>
+        <v>8.25</v>
       </c>
       <c r="AD59" t="n">
-        <v>5.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE59" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF59" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AG59" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AH59" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AI59" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AJ59" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AK59" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AL59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP59" t="n">
         <v>32</v>
       </c>
-      <c r="AM59" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>27</v>
-      </c>
       <c r="AQ59" t="n">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="AR59" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AS59" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.12</v>
+        <v>2.95</v>
       </c>
       <c r="AU59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX59" t="n">
         <v>7.6</v>
       </c>
-      <c r="AV59" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AY59" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AZ59" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="BA59" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="BB59" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="BC59" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD59" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>4j4y5VfK</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Aberystwyth</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N60" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P60" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S60" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U60" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V60" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W60" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X60" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD60" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD59"/>
+  <dimension ref="A1:BD52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -1159,7 +1159,7 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
         <v>9.5</v>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -1252,7 +1252,7 @@
         <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
         <v>4.75</v>
@@ -1305,7 +1305,7 @@
         <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
         <v>6.5</v>
@@ -1317,31 +1317,31 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>7</v>
@@ -1353,16 +1353,16 @@
         <v>9.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1389,13 +1389,13 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1407,10 +1407,10 @@
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1419,19 +1419,19 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX5" t="n">
         <v>34</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>251</v>
@@ -1484,7 +1484,7 @@
         <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
@@ -1610,7 +1610,7 @@
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
         <v>126</v>
@@ -1657,40 +1657,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I7" t="n">
         <v>3.95</v>
       </c>
       <c r="J7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K7" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Q7" t="n">
         <v>1.42</v>
       </c>
       <c r="R7" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="S7" t="n">
         <v>1.25</v>
@@ -1705,7 +1705,7 @@
         <v>2.52</v>
       </c>
       <c r="W7" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
         <v>11.25</v>
@@ -1714,7 +1714,7 @@
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>11.75</v>
@@ -1723,22 +1723,22 @@
         <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG7" t="n">
         <v>175</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI7" t="n">
         <v>28</v>
@@ -1750,7 +1750,7 @@
         <v>60</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
         <v>27</v>
@@ -1759,16 +1759,16 @@
         <v>4.05</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS7" t="n">
         <v>120</v>
@@ -1777,7 +1777,7 @@
         <v>3.6</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV7" t="n">
         <v>40</v>
@@ -1786,19 +1786,19 @@
         <v>6.3</v>
       </c>
       <c r="AX7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AY7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
         <v>90</v>
       </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC7" t="n">
         <v>500</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.32</v>
@@ -2239,28 +2239,28 @@
         <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T10" t="n">
         <v>2.8</v>
       </c>
       <c r="U10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="n">
         <v>23</v>
@@ -2269,43 +2269,43 @@
         <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE10" t="n">
         <v>13.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
         <v>9.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
@@ -2323,28 +2323,28 @@
         <v>2.8</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV10" t="n">
         <v>55</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="AX10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>55</v>
       </c>
       <c r="BA10" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2767,10 +2767,10 @@
         <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2779,10 +2779,10 @@
         <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -3128,7 +3128,7 @@
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -3161,7 +3161,7 @@
         <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
         <v>17</v>
@@ -3197,7 +3197,7 @@
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
@@ -3215,7 +3215,7 @@
         <v>5.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
@@ -3224,16 +3224,16 @@
         <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
         <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3307,7 +3307,7 @@
         <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L16" t="n">
         <v>3.4</v>
@@ -3364,7 +3364,7 @@
         <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3415,7 +3415,7 @@
         <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>41</v>
@@ -3659,28 +3659,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L18" t="n">
         <v>6.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.5</v>
-      </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -3689,10 +3689,10 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3701,34 +3701,34 @@
         <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
         <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
         <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
         <v>23</v>
@@ -3740,16 +3740,16 @@
         <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL18" t="n">
         <v>51</v>
@@ -3758,16 +3758,16 @@
         <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3785,10 +3785,10 @@
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY18" t="n">
         <v>41</v>
@@ -3797,7 +3797,7 @@
         <v>151</v>
       </c>
       <c r="BA18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB18" t="n">
         <v>351</v>
@@ -4023,34 +4023,34 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="J20" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
         <v>1.42</v>
       </c>
       <c r="P20" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Q20" t="n">
         <v>2.25</v>
@@ -4059,43 +4059,43 @@
         <v>1.6</v>
       </c>
       <c r="S20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
         <v>2.02</v>
       </c>
       <c r="V20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W20" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB20" t="n">
         <v>60</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>100</v>
@@ -4107,34 +4107,34 @@
         <v>5.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AJ20" t="n">
         <v>8.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM20" t="n">
         <v>35</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP20" t="n">
         <v>35</v>
       </c>
       <c r="AQ20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR20" t="n">
         <v>200</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>250</v>
       </c>
       <c r="AS20" t="n">
         <v>500</v>
@@ -4143,16 +4143,16 @@
         <v>2.5</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV20" t="n">
         <v>80</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AX20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY20" t="n">
         <v>20</v>
@@ -4161,7 +4161,7 @@
         <v>35</v>
       </c>
       <c r="BA20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB20" t="n">
         <v>300</v>
@@ -4235,10 +4235,10 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="n">
         <v>1.36</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
         <v>2.75</v>
@@ -4405,10 +4405,10 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -4453,13 +4453,13 @@
         <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
         <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
@@ -5661,52 +5661,52 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
         <v>2.15</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
         <v>2.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V29" t="n">
         <v>2.25</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.5</v>
       </c>
       <c r="W29" t="n">
         <v>13</v>
@@ -5724,28 +5724,28 @@
         <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ29" t="n">
         <v>9</v>
@@ -5763,7 +5763,7 @@
         <v>5.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
@@ -5772,31 +5772,31 @@
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS29" t="n">
         <v>126</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV29" t="n">
         <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX29" t="n">
         <v>11</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA29" t="n">
         <v>51</v>
@@ -5855,7 +5855,7 @@
         <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L30" t="n">
         <v>3.5</v>
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
@@ -6067,10 +6067,10 @@
         <v>3</v>
       </c>
       <c r="U31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W31" t="n">
         <v>9.5</v>
@@ -6419,10 +6419,10 @@
         <v>3.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R33" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S33" t="n">
         <v>1.44</v>
@@ -6431,10 +6431,10 @@
         <v>2.63</v>
       </c>
       <c r="U33" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W33" t="n">
         <v>9</v>
@@ -6542,7 +6542,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>f5vOfgTb</t>
+          <t>GKSWhXcB</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6562,37 +6562,37 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="J34" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
         <v>1.91</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -6604,7 +6604,7 @@
         <v>2.6</v>
       </c>
       <c r="R34" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
         <v>1.57</v>
@@ -6619,19 +6619,19 @@
         <v>1.62</v>
       </c>
       <c r="W34" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA34" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB34" t="n">
         <v>41</v>
@@ -6643,49 +6643,49 @@
         <v>6</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="n">
         <v>81</v>
       </c>
       <c r="AG34" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AH34" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK34" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AL34" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM34" t="n">
         <v>41</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP34" t="n">
         <v>34</v>
       </c>
       <c r="AQ34" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AR34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS34" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT34" t="n">
         <v>2.25</v>
@@ -6697,22 +6697,22 @@
         <v>81</v>
       </c>
       <c r="AW34" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB34" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC34" t="n">
         <v>51</v>
@@ -6724,7 +6724,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GKSWhXcB</t>
+          <t>rggpOWcK</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6739,174 +6739,174 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="I35" t="n">
-        <v>2.63</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="K35" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="L35" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>23</v>
+      </c>
+      <c r="O35" t="n">
         <v>1.1</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>7</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q35" t="n">
-        <v>2.6</v>
+        <v>1.33</v>
       </c>
       <c r="R35" t="n">
-        <v>1.44</v>
+        <v>3.4</v>
       </c>
       <c r="S35" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="T35" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="U35" t="n">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="V35" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="W35" t="n">
+        <v>12</v>
+      </c>
+      <c r="X35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO35" t="n">
         <v>6.5</v>
       </c>
-      <c r="X35" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z35" t="n">
+      <c r="AP35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR35" t="n">
         <v>29</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AS35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY35" t="n">
         <v>26</v>
       </c>
-      <c r="AB35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF35" t="n">
+      <c r="AZ35" t="n">
         <v>81</v>
       </c>
-      <c r="AG35" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV35" t="n">
+      <c r="BA35" t="n">
         <v>81</v>
       </c>
-      <c r="AW35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>101</v>
-      </c>
       <c r="BB35" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BC35" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD35" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>rggpOWcK</t>
+          <t>rXH9BgEE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6926,85 +6926,85 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="H36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I36" t="n">
         <v>5.25</v>
       </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
       <c r="J36" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="K36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L36" t="n">
         <v>5.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O36" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="S36" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="T36" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V36" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W36" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z36" t="n">
         <v>12</v>
       </c>
       <c r="AA36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD36" t="n">
         <v>10</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>11</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
@@ -7013,19 +7013,19 @@
         <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL36" t="n">
         <v>41</v>
@@ -7034,25 +7034,25 @@
         <v>34</v>
       </c>
       <c r="AN36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT36" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AU36" t="n">
         <v>7.5</v>
@@ -7061,10 +7061,10 @@
         <v>41</v>
       </c>
       <c r="AW36" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY36" t="n">
         <v>26</v>
@@ -7076,10 +7076,10 @@
         <v>81</v>
       </c>
       <c r="BB36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC36" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7088,7 +7088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>rXH9BgEE</t>
+          <t>4n6I9XrR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7108,49 +7108,49 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H37" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I37" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K37" t="n">
         <v>2.63</v>
       </c>
       <c r="L37" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O37" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R37" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S37" t="n">
         <v>1.25</v>
@@ -7159,43 +7159,43 @@
         <v>3.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V37" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y37" t="n">
         <v>8.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA37" t="n">
         <v>11</v>
       </c>
       <c r="AB37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC37" t="n">
         <v>19</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>21</v>
       </c>
       <c r="AD37" t="n">
         <v>10</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF37" t="n">
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH37" t="n">
         <v>21</v>
@@ -7204,28 +7204,28 @@
         <v>34</v>
       </c>
       <c r="AJ37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL37" t="n">
         <v>41</v>
       </c>
       <c r="AM37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP37" t="n">
         <v>15</v>
       </c>
       <c r="AQ37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR37" t="n">
         <v>34</v>
@@ -7237,25 +7237,25 @@
         <v>3.75</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
         <v>41</v>
       </c>
       <c r="AW37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ37" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA37" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB37" t="n">
         <v>151</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4n6I9XrR</t>
+          <t>zVdl4B6l</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7290,31 +7290,31 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="H38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I38" t="n">
         <v>5.25</v>
       </c>
-      <c r="I38" t="n">
-        <v>6</v>
-      </c>
       <c r="J38" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="K38" t="n">
         <v>2.6</v>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>1.02</v>
@@ -7341,76 +7341,76 @@
         <v>3.75</v>
       </c>
       <c r="U38" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V38" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W38" t="n">
+        <v>10</v>
+      </c>
+      <c r="X38" t="n">
         <v>9</v>
-      </c>
-      <c r="X38" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA38" t="n">
         <v>11</v>
       </c>
       <c r="AB38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="n">
         <v>19</v>
       </c>
       <c r="AD38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>17</v>
       </c>
-      <c r="AF38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>19</v>
-      </c>
       <c r="AK38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL38" t="n">
         <v>41</v>
       </c>
       <c r="AM38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP38" t="n">
         <v>15</v>
       </c>
       <c r="AQ38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS38" t="n">
         <v>81</v>
@@ -7419,25 +7419,25 @@
         <v>3.75</v>
       </c>
       <c r="AU38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV38" t="n">
         <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ38" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA38" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB38" t="n">
         <v>151</v>
@@ -7452,7 +7452,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>zVdl4B6l</t>
+          <t>Wdjc2ky1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7472,154 +7472,154 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="H39" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I39" t="n">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="K39" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O39" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="P39" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="R39" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="S39" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="T39" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="U39" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X39" t="n">
         <v>9</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z39" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB39" t="n">
         <v>19</v>
       </c>
       <c r="AC39" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AD39" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF39" t="n">
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH39" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL39" t="n">
         <v>51</v>
       </c>
-      <c r="AL39" t="n">
-        <v>41</v>
-      </c>
       <c r="AM39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="n">
         <v>3.75</v>
       </c>
       <c r="AO39" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AP39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ39" t="n">
         <v>15</v>
       </c>
-      <c r="AQ39" t="n">
-        <v>21</v>
-      </c>
       <c r="AR39" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AS39" t="n">
         <v>81</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AU39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV39" t="n">
         <v>41</v>
       </c>
       <c r="AW39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX39" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA39" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB39" t="n">
         <v>151</v>
@@ -7634,7 +7634,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Wdjc2ky1</t>
+          <t>4Al50T5D</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7654,37 +7654,37 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.33</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
-        <v>7.5</v>
+        <v>1.67</v>
       </c>
       <c r="J40" t="n">
-        <v>1.73</v>
+        <v>4.33</v>
       </c>
       <c r="K40" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="L40" t="n">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O40" t="n">
         <v>1.11</v>
@@ -7693,121 +7693,121 @@
         <v>6.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="R40" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="S40" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T40" t="n">
+        <v>4</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W40" t="n">
+        <v>21</v>
+      </c>
+      <c r="X40" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW40" t="n">
         <v>4.33</v>
       </c>
-      <c r="U40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W40" t="n">
-        <v>11</v>
-      </c>
-      <c r="X40" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC40" t="n">
+      <c r="AX40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ40" t="n">
         <v>23</v>
       </c>
-      <c r="AD40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX40" t="n">
+      <c r="BA40" t="n">
         <v>34</v>
       </c>
-      <c r="AY40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>101</v>
-      </c>
       <c r="BB40" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BC40" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD40" t="n">
         <v>151</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4Al50T5D</t>
+          <t>EypGIALs</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7836,97 +7836,97 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N41" t="n">
+        <v>13</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V41" t="n">
         <v>2.2</v>
       </c>
-      <c r="M41" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N41" t="n">
+      <c r="W41" t="n">
+        <v>12</v>
+      </c>
+      <c r="X41" t="n">
         <v>19</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T41" t="n">
-        <v>4</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W41" t="n">
-        <v>21</v>
-      </c>
-      <c r="X41" t="n">
-        <v>29</v>
-      </c>
       <c r="Y41" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z41" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AA41" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB41" t="n">
         <v>29</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AD41" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF41" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AH41" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI41" t="n">
         <v>11</v>
@@ -7935,22 +7935,22 @@
         <v>9</v>
       </c>
       <c r="AK41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL41" t="n">
         <v>15</v>
       </c>
-      <c r="AL41" t="n">
-        <v>12</v>
-      </c>
       <c r="AM41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO41" t="n">
         <v>17</v>
       </c>
-      <c r="AN41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>21</v>
-      </c>
       <c r="AP41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ41" t="n">
         <v>51</v>
@@ -7959,13 +7959,13 @@
         <v>67</v>
       </c>
       <c r="AS41" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT41" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AU41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV41" t="n">
         <v>41</v>
@@ -7974,31 +7974,31 @@
         <v>4.33</v>
       </c>
       <c r="AX41" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AY41" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ41" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA41" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BB41" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC41" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD41" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EypGIALs</t>
+          <t>ziYOGljf</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8018,151 +8018,151 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="K42" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N42" t="n">
+        <v>17</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V42" t="n">
         <v>2.63</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N42" t="n">
-        <v>13</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.2</v>
       </c>
       <c r="W42" t="n">
         <v>12</v>
       </c>
       <c r="X42" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB42" t="n">
         <v>19</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AC42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>12</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AK42" t="n">
         <v>34</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AL42" t="n">
         <v>23</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>15</v>
       </c>
       <c r="AM42" t="n">
         <v>23</v>
       </c>
       <c r="AN42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW42" t="n">
         <v>5.5</v>
       </c>
-      <c r="AO42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ42" t="n">
+      <c r="AX42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ42" t="n">
         <v>51</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>34</v>
       </c>
       <c r="BA42" t="n">
         <v>51</v>
@@ -8171,16 +8171,16 @@
         <v>101</v>
       </c>
       <c r="BC42" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ziYOGljf</t>
+          <t>UH1b32zi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8190,59 +8190,59 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="J43" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K43" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L43" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P43" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R43" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S43" t="n">
         <v>1.29</v>
@@ -8251,118 +8251,118 @@
         <v>3.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="V43" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA43" t="n">
         <v>12</v>
       </c>
-      <c r="X43" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z43" t="n">
+      <c r="AB43" t="n">
         <v>21</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>19</v>
       </c>
       <c r="AC43" t="n">
         <v>17</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF43" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG43" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS43" t="n">
         <v>101</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>81</v>
       </c>
       <c r="AT43" t="n">
         <v>3.5</v>
       </c>
       <c r="AU43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV43" t="n">
         <v>41</v>
       </c>
       <c r="AW43" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX43" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AY43" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA43" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB43" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC43" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="BD43" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bZAS8OCT</t>
+          <t>vq9r2IIk</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8372,77 +8372,77 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>LKS Lodz</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I44" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J44" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="K44" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L44" t="n">
         <v>4.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S44" t="n">
         <v>1.33</v>
       </c>
-      <c r="P44" t="n">
+      <c r="T44" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q44" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R44" t="n">
+      <c r="U44" t="n">
         <v>1.73</v>
       </c>
-      <c r="S44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V44" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y44" t="n">
         <v>8.5</v>
@@ -8451,31 +8451,31 @@
         <v>15</v>
       </c>
       <c r="AA44" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB44" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE44" t="n">
         <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ44" t="n">
         <v>15</v>
@@ -8487,31 +8487,31 @@
         <v>34</v>
       </c>
       <c r="AM44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS44" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV44" t="n">
         <v>51</v>
@@ -8526,13 +8526,13 @@
         <v>29</v>
       </c>
       <c r="AZ44" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA44" t="n">
         <v>81</v>
       </c>
-      <c r="BA44" t="n">
-        <v>101</v>
-      </c>
       <c r="BB44" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC44" t="n">
         <v>81</v>
@@ -8544,7 +8544,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UH1b32zi</t>
+          <t>Uc9TxhUH</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8554,179 +8554,179 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q45" t="n">
         <v>2.5</v>
       </c>
-      <c r="L45" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N45" t="n">
-        <v>17</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.57</v>
-      </c>
       <c r="R45" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="S45" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="T45" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="U45" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="V45" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="W45" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="X45" t="n">
         <v>9.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>13</v>
       </c>
-      <c r="AA45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>15</v>
-      </c>
       <c r="AK45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL45" t="n">
         <v>34</v>
       </c>
       <c r="AM45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN45" t="n">
         <v>4</v>
       </c>
       <c r="AO45" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AP45" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AQ45" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AR45" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS45" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV45" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW45" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY45" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ45" t="n">
         <v>67</v>
       </c>
       <c r="BA45" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB45" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC45" t="n">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="BD45" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8tfVf1BM</t>
+          <t>xEqUj7uf</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8736,110 +8736,110 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
         <v>3.25</v>
       </c>
       <c r="J46" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K46" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U46" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="W46" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z46" t="n">
         <v>21</v>
       </c>
       <c r="AA46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE46" t="n">
         <v>17</v>
       </c>
-      <c r="AB46" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>13</v>
-      </c>
       <c r="AF46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG46" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH46" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ46" t="n">
         <v>12</v>
@@ -8848,55 +8848,55 @@
         <v>34</v>
       </c>
       <c r="AL46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN46" t="n">
         <v>4.33</v>
       </c>
       <c r="AO46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP46" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ46" t="n">
         <v>41</v>
       </c>
       <c r="AR46" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS46" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT46" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU46" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW46" t="n">
         <v>5</v>
       </c>
       <c r="AX46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA46" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB46" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC46" t="n">
         <v>81</v>
@@ -8908,7 +8908,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vq9r2IIk</t>
+          <t>tWDaDCGb</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8918,179 +8918,179 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>LKS Lodz</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W47" t="n">
+        <v>9</v>
+      </c>
+      <c r="X47" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW47" t="n">
         <v>3.75</v>
       </c>
-      <c r="I47" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L47" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N47" t="n">
-        <v>13</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V47" t="n">
-        <v>2</v>
-      </c>
-      <c r="W47" t="n">
-        <v>8</v>
-      </c>
-      <c r="X47" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV47" t="n">
+      <c r="AX47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC47" t="n">
         <v>51</v>
       </c>
-      <c r="AW47" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>81</v>
-      </c>
       <c r="BD47" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Uc9TxhUH</t>
+          <t>jD9xvcHG</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9100,179 +9100,179 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
         <v>3.5</v>
       </c>
       <c r="J48" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K48" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
+        <v>11</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2</v>
+      </c>
+      <c r="W48" t="n">
+        <v>8</v>
+      </c>
+      <c r="X48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD48" t="n">
         <v>6.5</v>
       </c>
-      <c r="O48" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U48" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W48" t="n">
-        <v>6</v>
-      </c>
-      <c r="X48" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>6</v>
-      </c>
       <c r="AE48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AH48" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI48" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK48" t="n">
         <v>41</v>
       </c>
       <c r="AL48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM48" t="n">
         <v>34</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>41</v>
       </c>
       <c r="AN48" t="n">
         <v>4</v>
       </c>
       <c r="AO48" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP48" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR48" t="n">
         <v>51</v>
       </c>
-      <c r="AR48" t="n">
-        <v>81</v>
-      </c>
       <c r="AS48" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV48" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY48" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ48" t="n">
         <v>67</v>
       </c>
       <c r="BA48" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB48" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC48" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD48" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>xEqUj7uf</t>
+          <t>OnJJkFJb</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9282,179 +9282,179 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="H49" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>2.27</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="L49" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N49" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W49" t="n">
+        <v>10</v>
+      </c>
+      <c r="X49" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y49" t="n">
         <v>8</v>
       </c>
-      <c r="O49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W49" t="n">
-        <v>7</v>
-      </c>
-      <c r="X49" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>10</v>
-      </c>
       <c r="Z49" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AX49" t="n">
         <v>23</v>
       </c>
-      <c r="AA49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF49" t="n">
+      <c r="AY49" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC49" t="n">
         <v>51</v>
       </c>
-      <c r="AG49" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ49" t="n">
+      <c r="BD49" t="n">
         <v>51</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>tWDaDCGb</t>
+          <t>WSlPNaVs</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9464,170 +9464,170 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.2</v>
+        <v>2.35</v>
       </c>
       <c r="H50" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="I50" t="n">
-        <v>1.95</v>
+        <v>2.52</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>2.82</v>
       </c>
       <c r="K50" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L50" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="P50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R50" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q50" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S50" t="n">
-        <v>1.57</v>
+        <v>1.27</v>
       </c>
       <c r="T50" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="U50" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="V50" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="W50" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X50" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y50" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA50" t="n">
-        <v>41</v>
+        <v>16.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>51</v>
+        <v>19.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE50" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="AG50" t="n">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="AH50" t="n">
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>8</v>
+        <v>16.5</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK50" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AL50" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AM50" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="AN50" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="AO50" t="n">
-        <v>26</v>
+        <v>11.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="AQ50" t="n">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AR50" t="n">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="AS50" t="n">
-        <v>351</v>
+        <v>150</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU50" t="n">
-        <v>9.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV50" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AW50" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="AX50" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AY50" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AZ50" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BA50" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="BB50" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="BC50" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD50" t="n">
         <v>51</v>
@@ -9636,7 +9636,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MPujWpkD</t>
+          <t>EaYcijro</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -9646,179 +9646,179 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W51" t="n">
+        <v>6</v>
+      </c>
+      <c r="X51" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH51" t="n">
         <v>8</v>
       </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="J51" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N51" t="n">
-        <v>15</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P51" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T51" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W51" t="n">
-        <v>29</v>
-      </c>
-      <c r="X51" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC51" t="n">
+      <c r="AI51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP51" t="n">
         <v>26</v>
       </c>
-      <c r="AD51" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ51" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AR51" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AS51" t="n">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="AT51" t="n">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="AU51" t="n">
         <v>9</v>
       </c>
       <c r="AV51" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC51" t="n">
         <v>51</v>
       </c>
-      <c r="AW51" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>81</v>
-      </c>
       <c r="BD51" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>jD9xvcHG</t>
+          <t>4j4y5VfK</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -9828,1446 +9828,172 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>4.85</v>
       </c>
       <c r="H52" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N52" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X52" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW52" t="n">
         <v>3.5</v>
       </c>
-      <c r="I52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N52" t="n">
-        <v>11</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T52" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V52" t="n">
-        <v>2</v>
-      </c>
-      <c r="W52" t="n">
-        <v>8</v>
-      </c>
-      <c r="X52" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR52" t="n">
+      <c r="AX52" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC52" t="n">
         <v>51</v>
       </c>
-      <c r="AS52" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>81</v>
-      </c>
       <c r="BD52" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>OnJJkFJb</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Lausanne Ouchy</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Stade Nyonnais</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H53" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N53" t="n">
-        <v>9</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T53" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V53" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X53" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>WSlPNaVs</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Vaduz</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Xamax</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N54" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T54" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V54" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W54" t="n">
-        <v>13</v>
-      </c>
-      <c r="X54" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Yis7VrPE</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Kasimpasa</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kayserispor</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N55" t="n">
-        <v>13</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T55" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V55" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W55" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X55" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>biWciD0T</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Ankaragucu</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Erokspor</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N56" t="n">
-        <v>15</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R56" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T56" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U56" t="n">
-        <v>2</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X56" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA56" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>bX7GvzHN</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Umraniyespor</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Igdir FK</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N57" t="n">
-        <v>9</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P57" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W57" t="n">
-        <v>8</v>
-      </c>
-      <c r="X57" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>EaYcijro</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Maldonado</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>7</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U58" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W58" t="n">
-        <v>6</v>
-      </c>
-      <c r="X58" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>4j4y5VfK</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Aberystwyth</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N59" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P59" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S59" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T59" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U59" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V59" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W59" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X59" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD59" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD46"/>
+  <dimension ref="A1:BD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>2.63</v>
@@ -789,10 +789,10 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
@@ -804,7 +804,7 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
@@ -822,13 +822,13 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -840,13 +840,13 @@
         <v>81</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
         <v>6.5</v>
@@ -867,13 +867,13 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -882,10 +882,10 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
@@ -1135,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
         <v>2.75</v>
@@ -1308,7 +1308,7 @@
         <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1344,7 +1344,7 @@
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1622,7 +1622,7 @@
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1842,10 +1842,10 @@
         <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1854,7 +1854,7 @@
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1875,67 +1875,67 @@
         <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
         <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
         <v>126</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
         <v>4.75</v>
@@ -1944,7 +1944,7 @@
         <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1953,10 +1953,10 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1980,10 +1980,10 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC8" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
         <v>3.5</v>
@@ -2042,7 +2042,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2069,28 +2069,28 @@
         <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2102,7 +2102,7 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2123,13 +2123,13 @@
         <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
@@ -2150,7 +2150,7 @@
         <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>26</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2442,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2451,13 +2451,13 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
         <v>81</v>
@@ -2469,16 +2469,16 @@
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
         <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
         <v>67</v>
@@ -2487,13 +2487,13 @@
         <v>3.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2523,7 +2523,7 @@
         <v>201</v>
       </c>
       <c r="BA11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB11" t="n">
         <v>501</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OOhT0JFs</t>
+          <t>2XKvz6nC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,77 +2548,77 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Mushuc Runa</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.75</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>15</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
@@ -2627,16 +2627,16 @@
         <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2645,34 +2645,34 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
         <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
@@ -2681,46 +2681,46 @@
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dpF4nwBG</t>
+          <t>AHtiptfM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,170 +2730,170 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.33</v>
+        <v>1.62</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>1.67</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>2.7</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP13" t="n">
         <v>19</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AQ13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX13" t="n">
         <v>29</v>
       </c>
-      <c r="Y13" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AY13" t="n">
         <v>34</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AZ13" t="n">
         <v>101</v>
       </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>23</v>
-      </c>
       <c r="BA13" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="BB13" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SpiyUUfk</t>
+          <t>QNwBhf4b</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,41 +2912,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Rotherham</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
         <v>4.33</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2955,16 +2955,16 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -2973,73 +2973,73 @@
         <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
         <v>10</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>7.5</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3051,31 +3051,31 @@
         <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>67</v>
       </c>
-      <c r="AW14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>126</v>
-      </c>
       <c r="BA14" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD14" t="n">
         <v>126</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2XKvz6nC</t>
+          <t>8QLNiXNH</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.2</v>
       </c>
-      <c r="L15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="U15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI15" t="n">
         <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="n">
         <v>4.5</v>
       </c>
-      <c r="AO15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5</v>
-      </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
         <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IVyy8FEl</t>
+          <t>UF2fjKnD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>1.44</v>
       </c>
       <c r="H16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
         <v>3.25</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W16" t="n">
-        <v>11</v>
-      </c>
-      <c r="X16" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.45</v>
+        <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.75</v>
+        <v>41</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="BA16" t="n">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="BB16" t="n">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AHtiptfM</t>
+          <t>voU6eFOh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,65 +3458,65 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="n">
         <v>1.83</v>
@@ -3525,28 +3525,28 @@
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3558,43 +3558,43 @@
         <v>251</v>
       </c>
       <c r="AH17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO17" t="n">
         <v>15</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AP17" t="n">
         <v>26</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3603,34 +3603,34 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY17" t="n">
         <v>26</v>
       </c>
-      <c r="AY17" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>QNwBhf4b</t>
+          <t>nBXEggg5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="V18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW18" t="n">
         <v>4</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8</v>
-      </c>
-      <c r="X18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
+      <c r="AX18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY18" t="n">
         <v>29</v>
       </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD18" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8QLNiXNH</t>
+          <t>hvuVIHzQ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,157 +3832,157 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.88</v>
       </c>
-      <c r="I19" t="n">
-        <v>2.6</v>
-      </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.91</v>
       </c>
-      <c r="L19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="W19" t="n">
+        <v>8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
         <v>6.5</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W19" t="n">
-        <v>7</v>
-      </c>
-      <c r="X19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>1250</v>
+        <v>251</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
         <v>67</v>
       </c>
-      <c r="AR19" t="n">
-        <v>101</v>
-      </c>
       <c r="AS19" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
         <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UF2fjKnD</t>
+          <t>KrE5cyft</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,157 +4014,157 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>6.25</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K20" t="n">
         <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R20" t="n">
         <v>2.03</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y20" t="n">
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" t="n">
         <v>10</v>
       </c>
-      <c r="AA20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU20" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>67</v>
       </c>
-      <c r="AG20" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS20" t="n">
+      <c r="BA20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB20" t="n">
         <v>151</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>351</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>voU6eFOh</t>
+          <t>jLoe8JjU</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4191,72 +4191,72 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="J21" t="n">
         <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T21" t="n">
         <v>3.25</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
         <v>10</v>
@@ -4268,40 +4268,40 @@
         <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
         <v>26</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
       </c>
       <c r="AN21" t="n">
         <v>4.75</v>
@@ -4310,22 +4310,22 @@
         <v>15</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4334,31 +4334,31 @@
         <v>4.75</v>
       </c>
       <c r="AX21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nBXEggg5</t>
+          <t>rDHXLln4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,167 +4368,167 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="J22" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.95</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.67</v>
       </c>
       <c r="W22" t="n">
         <v>8.5</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB22" t="n">
         <v>34</v>
       </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>1250</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>21</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP22" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
         <v>81</v>
       </c>
-      <c r="AR22" t="n">
-        <v>101</v>
-      </c>
       <c r="AS22" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA22" t="n">
         <v>67</v>
       </c>
-      <c r="AW22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>81</v>
-      </c>
       <c r="BB22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hvuVIHzQ</t>
+          <t>GKSWhXcB</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4555,174 +4555,174 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T23" t="n">
         <v>2.25</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>11</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
         <v>19</v>
       </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>201</v>
+        <v>800</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX23" t="n">
         <v>17</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ23" t="n">
         <v>51</v>
       </c>
       <c r="BA23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>KrE5cyft</t>
+          <t>rggpOWcK</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4737,174 +4737,174 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="R24" t="n">
-        <v>2.08</v>
+        <v>3.4</v>
       </c>
       <c r="S24" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="V24" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="W24" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
         <v>10</v>
       </c>
-      <c r="Y24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AB24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE24" t="n">
         <v>17</v>
       </c>
-      <c r="AA24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>13</v>
-      </c>
       <c r="AF24" t="n">
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH24" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>21</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>13</v>
-      </c>
       <c r="AK24" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
         <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AR24" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AS24" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA24" t="n">
         <v>81</v>
       </c>
       <c r="BB24" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD24" t="n">
         <v>151</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>zXsMi8Xb</t>
+          <t>rXH9BgEE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,65 +4914,65 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>1.44</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>21</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R25" t="n">
         <v>2.7</v>
       </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>13</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="S25" t="n">
         <v>1.22</v>
       </c>
-      <c r="P25" t="n">
+      <c r="T25" t="n">
         <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3</v>
       </c>
       <c r="U25" t="n">
         <v>1.62</v>
@@ -4981,112 +4981,112 @@
         <v>2.2</v>
       </c>
       <c r="W25" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB25" t="n">
         <v>19</v>
       </c>
-      <c r="AB25" t="n">
-        <v>26</v>
-      </c>
       <c r="AC25" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP25" t="n">
         <v>15</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AS25" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU25" t="n">
         <v>7.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB25" t="n">
         <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD25" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jLoe8JjU</t>
+          <t>4n6I9XrR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5101,174 +5101,174 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N26" t="n">
+        <v>19</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
         <v>3.6</v>
       </c>
-      <c r="I26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>13</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>10</v>
-      </c>
-      <c r="X26" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="n">
+      <c r="AO26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB26" t="n">
         <v>151</v>
       </c>
-      <c r="AH26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>126</v>
-      </c>
       <c r="BC26" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD26" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rDHXLln4</t>
+          <t>zVdl4B6l</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L27" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="P27" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="T27" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V27" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="W27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>15</v>
       </c>
-      <c r="Y27" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AK27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>23</v>
       </c>
-      <c r="AB27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH27" t="n">
+      <c r="AR27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU27" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK27" t="n">
+      <c r="AV27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX27" t="n">
         <v>23</v>
       </c>
-      <c r="AL27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP27" t="n">
+      <c r="AY27" t="n">
         <v>26</v>
       </c>
-      <c r="AQ27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR27" t="n">
+      <c r="AZ27" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA27" t="n">
         <v>81</v>
       </c>
-      <c r="AS27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>67</v>
-      </c>
       <c r="BB27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD27" t="n">
         <v>151</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GKSWhXcB</t>
+          <t>Wdjc2ky1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5465,174 +5465,174 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="I28" t="n">
-        <v>2.63</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>1.73</v>
       </c>
       <c r="K28" t="n">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="L28" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>23</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.1</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>7</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q28" t="n">
-        <v>2.6</v>
+        <v>1.36</v>
       </c>
       <c r="R28" t="n">
-        <v>1.48</v>
+        <v>3.1</v>
       </c>
       <c r="S28" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="U28" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="W28" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="X28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD28" t="n">
         <v>12</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>19</v>
       </c>
       <c r="AF28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK28" t="n">
         <v>81</v>
       </c>
-      <c r="AG28" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK28" t="n">
+      <c r="AL28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR28" t="n">
         <v>29</v>
       </c>
-      <c r="AL28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP28" t="n">
+      <c r="AS28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX28" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>17</v>
       </c>
       <c r="AY28" t="n">
         <v>34</v>
       </c>
       <c r="AZ28" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA28" t="n">
         <v>101</v>
       </c>
       <c r="BB28" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC28" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD28" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>rggpOWcK</t>
+          <t>4Al50T5D</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5652,160 +5652,160 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.36</v>
+        <v>4.5</v>
       </c>
       <c r="H29" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="I29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N29" t="n">
+        <v>21</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P29" t="n">
         <v>6.5</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="Q29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R29" t="n">
         <v>2.88</v>
       </c>
-      <c r="L29" t="n">
-        <v>6</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>26</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P29" t="n">
+      <c r="S29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W29" t="n">
+        <v>21</v>
+      </c>
+      <c r="X29" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN29" t="n">
         <v>7</v>
       </c>
-      <c r="Q29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T29" t="n">
+      <c r="AO29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW29" t="n">
         <v>4.33</v>
       </c>
-      <c r="U29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W29" t="n">
-        <v>12</v>
-      </c>
-      <c r="X29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK29" t="n">
+      <c r="AX29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB29" t="n">
         <v>67</v>
       </c>
-      <c r="AL29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>126</v>
-      </c>
       <c r="BC29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD29" t="n">
         <v>151</v>
@@ -5814,7 +5814,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rXH9BgEE</t>
+          <t>EypGIALs</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5834,55 +5834,55 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.48</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="J30" t="n">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L30" t="n">
         <v>2.63</v>
       </c>
-      <c r="L30" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="R30" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="S30" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="U30" t="n">
         <v>1.57</v>
@@ -5891,31 +5891,31 @@
         <v>2.25</v>
       </c>
       <c r="W30" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X30" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA30" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
@@ -5924,43 +5924,43 @@
         <v>126</v>
       </c>
       <c r="AH30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM30" t="n">
         <v>21</v>
       </c>
-      <c r="AI30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ30" t="n">
+      <c r="AN30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO30" t="n">
         <v>17</v>
       </c>
-      <c r="AK30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>7</v>
-      </c>
       <c r="AP30" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AR30" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AS30" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT30" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AU30" t="n">
         <v>7.5</v>
@@ -5969,25 +5969,25 @@
         <v>41</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX30" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB30" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC30" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD30" t="n">
         <v>151</v>
@@ -5996,7 +5996,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4n6I9XrR</t>
+          <t>ziYOGljf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6016,49 +6016,49 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>6.25</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="K31" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S31" t="n">
         <v>1.25</v>
@@ -6067,76 +6067,76 @@
         <v>3.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="W31" t="n">
+        <v>11</v>
+      </c>
+      <c r="X31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y31" t="n">
         <v>9</v>
       </c>
-      <c r="X31" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
         <v>10</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>6.5</v>
       </c>
       <c r="AP31" t="n">
         <v>15</v>
       </c>
       <c r="AQ31" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AR31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS31" t="n">
         <v>81</v>
@@ -6145,31 +6145,31 @@
         <v>3.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB31" t="n">
         <v>101</v>
       </c>
-      <c r="BA31" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>151</v>
-      </c>
       <c r="BC31" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD31" t="n">
         <v>151</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>zVdl4B6l</t>
+          <t>UH1b32zi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,95 +6188,95 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L32" t="n">
         <v>4.33</v>
       </c>
-      <c r="I32" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.75</v>
-      </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S32" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T32" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X32" t="n">
         <v>10</v>
-      </c>
-      <c r="X32" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y32" t="n">
         <v>8.5</v>
       </c>
       <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
         <v>13</v>
       </c>
-      <c r="AA32" t="n">
-        <v>12</v>
-      </c>
       <c r="AB32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC32" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
@@ -6285,46 +6285,46 @@
         <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH32" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="n">
         <v>29</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>34</v>
-      </c>
       <c r="AM32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN32" t="n">
         <v>4</v>
       </c>
       <c r="AO32" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AR32" t="n">
         <v>41</v>
       </c>
       <c r="AS32" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU32" t="n">
         <v>7.5</v>
@@ -6333,34 +6333,34 @@
         <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY32" t="n">
         <v>23</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>26</v>
       </c>
       <c r="AZ32" t="n">
         <v>67</v>
       </c>
       <c r="BA32" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD32" t="n">
         <v>81</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Wdjc2ky1</t>
+          <t>vq9r2IIk</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,179 +6370,179 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>LKS Lodz</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>13</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S33" t="n">
         <v>1.33</v>
       </c>
-      <c r="H33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="T33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U33" t="n">
         <v>1.73</v>
       </c>
-      <c r="K33" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N33" t="n">
-        <v>23</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P33" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T33" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V33" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X33" t="n">
         <v>9</v>
       </c>
       <c r="Y33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO33" t="n">
         <v>9</v>
       </c>
-      <c r="Z33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="AP33" t="n">
         <v>19</v>
       </c>
-      <c r="AC33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ33" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AR33" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AS33" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT33" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="AU33" t="n">
         <v>8</v>
       </c>
       <c r="AV33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW33" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX33" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AY33" t="n">
         <v>29</v>
       </c>
       <c r="AZ33" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB33" t="n">
         <v>151</v>
       </c>
       <c r="BC33" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD33" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4Al50T5D</t>
+          <t>Uc9TxhUH</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,179 +6552,179 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>1.67</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L34" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
+        <v>7</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W34" t="n">
+        <v>6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
         <v>21</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="AA34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T34" t="n">
+      <c r="AD34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
         <v>4</v>
       </c>
-      <c r="U34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W34" t="n">
+      <c r="AO34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX34" t="n">
         <v>21</v>
       </c>
-      <c r="X34" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR34" t="n">
+      <c r="AY34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ34" t="n">
         <v>67</v>
       </c>
-      <c r="AS34" t="n">
+      <c r="BA34" t="n">
         <v>101</v>
       </c>
-      <c r="AT34" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>34</v>
-      </c>
       <c r="BB34" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BC34" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EypGIALs</t>
+          <t>tWDaDCGb</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6739,174 +6739,174 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="I35" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="L35" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X35" t="n">
         <v>15</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V35" t="n">
+      <c r="Y35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT35" t="n">
         <v>2.25</v>
       </c>
-      <c r="W35" t="n">
-        <v>13</v>
-      </c>
-      <c r="X35" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ35" t="n">
+      <c r="AU35" t="n">
         <v>9</v>
       </c>
-      <c r="AK35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV35" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW35" t="n">
         <v>4.33</v>
       </c>
       <c r="AX35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AY35" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ35" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA35" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB35" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC35" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD35" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ziYOGljf</t>
+          <t>jD9xvcHG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,179 +6916,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="S36" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="V36" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y36" t="n">
         <v>9</v>
       </c>
       <c r="Z36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA36" t="n">
         <v>17</v>
       </c>
-      <c r="AA36" t="n">
-        <v>13</v>
-      </c>
       <c r="AB36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX36" t="n">
         <v>19</v>
       </c>
-      <c r="AC36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="n">
+      <c r="AY36" t="n">
         <v>26</v>
       </c>
-      <c r="AM36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS36" t="n">
+      <c r="AZ36" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA36" t="n">
         <v>81</v>
       </c>
-      <c r="AT36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>51</v>
-      </c>
       <c r="BB36" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC36" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD36" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UH1b32zi</t>
+          <t>OnJJkFJb</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,179 +7098,179 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="I37" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="J37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K37" t="n">
         <v>2.2</v>
       </c>
-      <c r="K37" t="n">
-        <v>2.5</v>
-      </c>
       <c r="L37" t="n">
-        <v>4.75</v>
+        <v>4.55</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>17</v>
+        <v>7.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="P37" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="R37" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="S37" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T37" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="U37" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V37" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W37" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="X37" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z37" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC37" t="n">
-        <v>17</v>
+        <v>7.9</v>
       </c>
       <c r="AD37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AG37" t="n">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="AH37" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK37" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AM37" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AN37" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP37" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR37" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AS37" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV37" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AW37" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AX37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY37" t="n">
         <v>26</v>
       </c>
       <c r="AZ37" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BA37" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="BB37" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="BC37" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="BD37" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>vq9r2IIk</t>
+          <t>WSlPNaVs</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,179 +7280,179 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LKS Lodz</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>2.32</v>
       </c>
       <c r="H38" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>4.33</v>
+        <v>2.57</v>
       </c>
       <c r="J38" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="K38" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L38" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>4.55</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R38" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="S38" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="T38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U38" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="W38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD38" t="n">
         <v>8</v>
       </c>
-      <c r="X38" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>7</v>
-      </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AG38" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH38" t="n">
         <v>13</v>
       </c>
       <c r="AI38" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AK38" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AL38" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AM38" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AN38" t="n">
-        <v>4</v>
+        <v>4.65</v>
       </c>
       <c r="AO38" t="n">
-        <v>9</v>
+        <v>11.75</v>
       </c>
       <c r="AP38" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AQ38" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AR38" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AS38" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU38" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AV38" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW38" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="AX38" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AY38" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ38" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="BA38" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="BB38" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BC38" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD38" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Uc9TxhUH</t>
+          <t>EaYcijro</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7462,53 +7462,53 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I39" t="n">
         <v>3.5</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>1.95</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M39" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q39" t="n">
         <v>2.5</v>
@@ -7523,19 +7523,19 @@
         <v>2.38</v>
       </c>
       <c r="U39" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V39" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W39" t="n">
         <v>6</v>
       </c>
       <c r="X39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y39" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>10</v>
       </c>
       <c r="Z39" t="n">
         <v>21</v>
@@ -7547,25 +7547,25 @@
         <v>41</v>
       </c>
       <c r="AC39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD39" t="n">
         <v>6</v>
       </c>
       <c r="AE39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF39" t="n">
         <v>67</v>
       </c>
       <c r="AG39" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AH39" t="n">
         <v>8</v>
       </c>
       <c r="AI39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ39" t="n">
         <v>13</v>
@@ -7586,10 +7586,10 @@
         <v>13</v>
       </c>
       <c r="AP39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR39" t="n">
         <v>81</v>
@@ -7607,7 +7607,7 @@
         <v>67</v>
       </c>
       <c r="AW39" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX39" t="n">
         <v>21</v>
@@ -7625,16 +7625,16 @@
         <v>301</v>
       </c>
       <c r="BC39" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD39" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>xEqUj7uf</t>
+          <t>4j4y5VfK</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7644,1264 +7644,172 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>4.85</v>
       </c>
       <c r="H40" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="I40" t="n">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>2.12</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI40" t="n">
         <v>8</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X40" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC40" t="n">
+      <c r="AJ40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU40" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD40" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV40" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW40" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AX40" t="n">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="AY40" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AZ40" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="BA40" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="BB40" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="BC40" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD40" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>tWDaDCGb</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Din. Bucuresti</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>CFR Cluj</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N41" t="n">
-        <v>6</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X41" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>jD9xvcHG</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Elche</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Almeria</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N42" t="n">
-        <v>11</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2</v>
-      </c>
-      <c r="W42" t="n">
-        <v>8</v>
-      </c>
-      <c r="X42" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>OnJJkFJb</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Lausanne Ouchy</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Stade Nyonnais</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N43" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T43" t="n">
-        <v>3</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W43" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X43" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>WSlPNaVs</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>16:15</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Vaduz</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Xamax</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T44" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V44" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="W44" t="n">
-        <v>13</v>
-      </c>
-      <c r="X44" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>EaYcijro</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Maldonado</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>7</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W45" t="n">
-        <v>6</v>
-      </c>
-      <c r="X45" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>4j4y5VfK</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Aberystwyth</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N46" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X46" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD46" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD40"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="H2" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,16 +771,16 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -789,10 +789,10 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
@@ -804,7 +804,7 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
@@ -816,46 +816,46 @@
         <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>34</v>
@@ -867,28 +867,28 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
         <v>451</v>
@@ -932,10 +932,10 @@
         <v>2.38</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>2.3</v>
@@ -977,10 +977,10 @@
         <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,19 +1004,19 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH3" t="n">
         <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
@@ -1064,10 +1064,10 @@
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1153,22 +1153,22 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
@@ -1198,13 +1198,13 @@
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1237,13 +1237,13 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
         <v>81</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>2.4</v>
@@ -1335,10 +1335,10 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1350,7 +1350,7 @@
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -1365,7 +1365,7 @@
         <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1395,7 +1395,7 @@
         <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1419,22 +1419,22 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
         <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>501</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
@@ -1484,13 +1484,13 @@
         <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1553,10 +1553,10 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1595,7 +1595,7 @@
         <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1610,7 +1610,7 @@
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
         <v>126</v>
@@ -1657,40 +1657,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
         <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,103 +1699,103 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
         <v>2.18</v>
       </c>
       <c r="W7" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
         <v>300</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
         <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT7" t="n">
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV7" t="n">
         <v>55</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AX7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1890,10 +1890,10 @@
         <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
         <v>23</v>
@@ -1902,7 +1902,7 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>15</v>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
@@ -1923,16 +1923,16 @@
         <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
         <v>23</v>
@@ -1941,7 +1941,7 @@
         <v>4.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
@@ -2042,7 +2042,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
         <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2233,10 +2233,10 @@
         <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S10" t="n">
         <v>1.3</v>
@@ -2257,13 +2257,13 @@
         <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
         <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2302,7 +2302,7 @@
         <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
         <v>21</v>
@@ -2338,7 +2338,7 @@
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
         <v>41</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K13" t="n">
         <v>2.25</v>
@@ -2767,10 +2767,10 @@
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2973,16 +2973,16 @@
         <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
         <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
@@ -2997,7 +2997,7 @@
         <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3009,13 +3009,13 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
         <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
         <v>13</v>
@@ -3033,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3116,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I15" t="n">
         <v>2.63</v>
@@ -3125,7 +3125,7 @@
         <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L15" t="n">
         <v>3.5</v>
@@ -3137,16 +3137,16 @@
         <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
         <v>1.62</v>
@@ -3179,10 +3179,10 @@
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3206,7 +3206,7 @@
         <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
@@ -3254,7 +3254,7 @@
         <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
@@ -3325,10 +3325,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3343,7 +3343,7 @@
         <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
         <v>6.5</v>
@@ -3358,7 +3358,7 @@
         <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
         <v>10</v>
@@ -3433,7 +3433,7 @@
         <v>151</v>
       </c>
       <c r="BA16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB16" t="n">
         <v>351</v>
@@ -3689,10 +3689,10 @@
         <v>2.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S18" t="n">
         <v>1.53</v>
@@ -3871,10 +3871,10 @@
         <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>
@@ -4023,28 +4023,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.5</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.9</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
         <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -4053,10 +4053,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R20" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4071,16 +4071,16 @@
         <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
         <v>15</v>
@@ -4089,7 +4089,7 @@
         <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
@@ -4104,31 +4104,31 @@
         <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
         <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
         <v>34</v>
@@ -4152,16 +4152,16 @@
         <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
       </c>
       <c r="AZ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA20" t="n">
         <v>67</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>81</v>
       </c>
       <c r="BB20" t="n">
         <v>151</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.25</v>
@@ -4220,7 +4220,7 @@
         <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -4253,7 +4253,7 @@
         <v>2.2</v>
       </c>
       <c r="W21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
         <v>15</v>
@@ -4262,7 +4262,7 @@
         <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -4301,10 +4301,10 @@
         <v>19</v>
       </c>
       <c r="AM21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
         <v>15</v>
@@ -4328,7 +4328,7 @@
         <v>7.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW21" t="n">
         <v>4.75</v>
@@ -4387,73 +4387,73 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
         <v>3.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.95</v>
       </c>
       <c r="W22" t="n">
         <v>8.5</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
@@ -4465,13 +4465,13 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4483,7 +4483,7 @@
         <v>21</v>
       </c>
       <c r="AM22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="n">
         <v>4.75</v>
@@ -4492,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
         <v>51</v>
@@ -4504,22 +4504,22 @@
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX22" t="n">
         <v>15</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
         <v>51</v>
@@ -4751,28 +4751,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K24" t="n">
         <v>2.88</v>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O24" t="n">
         <v>1.1</v>
@@ -4793,22 +4793,22 @@
         <v>4.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V24" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W24" t="n">
         <v>12</v>
       </c>
       <c r="X24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
         <v>10</v>
@@ -4832,28 +4832,28 @@
         <v>126</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM24" t="n">
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP24" t="n">
         <v>13</v>
@@ -4877,10 +4877,10 @@
         <v>41</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY24" t="n">
         <v>29</v>
@@ -4889,10 +4889,10 @@
         <v>101</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
         <v>301</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I25" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K25" t="n">
         <v>2.63</v>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
@@ -4981,10 +4981,10 @@
         <v>2.2</v>
       </c>
       <c r="W25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -5002,16 +5002,16 @@
         <v>21</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
@@ -5020,7 +5020,7 @@
         <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
         <v>67</v>
@@ -5029,19 +5029,19 @@
         <v>41</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
         <v>3.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP25" t="n">
         <v>15</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
         <v>34</v>
@@ -5053,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
         <v>41</v>
@@ -5068,10 +5068,10 @@
         <v>29</v>
       </c>
       <c r="AZ25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB25" t="n">
         <v>151</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H26" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I26" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.83</v>
@@ -5130,7 +5130,7 @@
         <v>2.63</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
@@ -5181,7 +5181,7 @@
         <v>21</v>
       </c>
       <c r="AC26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD26" t="n">
         <v>11</v>
@@ -5193,13 +5193,13 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH26" t="n">
         <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="n">
         <v>19</v>
@@ -5297,10 +5297,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I27" t="n">
         <v>4.75</v>
@@ -5315,10 +5315,10 @@
         <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O27" t="n">
         <v>1.14</v>
@@ -5494,25 +5494,25 @@
         <v>2.88</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R28" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="S28" t="n">
         <v>1.2</v>
@@ -5521,28 +5521,28 @@
         <v>4.33</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
         <v>10</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="n">
         <v>23</v>
@@ -5551,7 +5551,7 @@
         <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
         <v>41</v>
@@ -5593,13 +5593,13 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT28" t="n">
         <v>4.33</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>41</v>
@@ -5611,10 +5611,10 @@
         <v>34</v>
       </c>
       <c r="AY28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA28" t="n">
         <v>101</v>
@@ -5682,7 +5682,7 @@
         <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O29" t="n">
         <v>1.11</v>
@@ -5691,10 +5691,10 @@
         <v>6.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R29" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S29" t="n">
         <v>1.22</v>
@@ -6025,19 +6025,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K31" t="n">
         <v>2.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.5</v>
       </c>
       <c r="L31" t="n">
         <v>3.75</v>
@@ -6061,10 +6061,10 @@
         <v>2.35</v>
       </c>
       <c r="S31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U31" t="n">
         <v>1.5</v>
@@ -6082,13 +6082,13 @@
         <v>9</v>
       </c>
       <c r="Z31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="n">
         <v>13</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
         <v>17</v>
@@ -6097,7 +6097,7 @@
         <v>7.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>34</v>
@@ -6106,10 +6106,10 @@
         <v>101</v>
       </c>
       <c r="AH31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>13</v>
@@ -6130,7 +6130,7 @@
         <v>10</v>
       </c>
       <c r="AP31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
         <v>29</v>
@@ -6139,10 +6139,10 @@
         <v>41</v>
       </c>
       <c r="AS31" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
@@ -6163,13 +6163,13 @@
         <v>51</v>
       </c>
       <c r="BA31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC31" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD31" t="n">
         <v>151</v>
@@ -6207,46 +6207,46 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L32" t="n">
         <v>4</v>
       </c>
-      <c r="J32" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R32" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U32" t="n">
         <v>1.62</v>
@@ -6255,7 +6255,7 @@
         <v>2.2</v>
       </c>
       <c r="W32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X32" t="n">
         <v>10</v>
@@ -6264,19 +6264,19 @@
         <v>8.5</v>
       </c>
       <c r="Z32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA32" t="n">
         <v>15</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>13</v>
       </c>
       <c r="AB32" t="n">
         <v>21</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
@@ -6288,10 +6288,10 @@
         <v>151</v>
       </c>
       <c r="AH32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
         <v>13</v>
@@ -6300,7 +6300,7 @@
         <v>41</v>
       </c>
       <c r="AL32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM32" t="n">
         <v>29</v>
@@ -6309,22 +6309,22 @@
         <v>4</v>
       </c>
       <c r="AO32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS32" t="n">
         <v>101</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU32" t="n">
         <v>7.5</v>
@@ -6333,16 +6333,16 @@
         <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY32" t="n">
         <v>23</v>
       </c>
       <c r="AZ32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA32" t="n">
         <v>67</v>
@@ -6351,7 +6351,7 @@
         <v>151</v>
       </c>
       <c r="BC32" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD32" t="n">
         <v>81</v>
@@ -6395,7 +6395,7 @@
         <v>3.75</v>
       </c>
       <c r="I33" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J33" t="n">
         <v>2.38</v>
@@ -6419,10 +6419,10 @@
         <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R33" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S33" t="n">
         <v>1.33</v>
@@ -6431,13 +6431,13 @@
         <v>3.25</v>
       </c>
       <c r="U33" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X33" t="n">
         <v>9</v>
@@ -6455,19 +6455,19 @@
         <v>23</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
         <v>7</v>
       </c>
       <c r="AE33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH33" t="n">
         <v>13</v>
@@ -6476,7 +6476,7 @@
         <v>23</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK33" t="n">
         <v>41</v>
@@ -6509,7 +6509,7 @@
         <v>3.25</v>
       </c>
       <c r="AU33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV33" t="n">
         <v>51</v>
@@ -6518,10 +6518,10 @@
         <v>6</v>
       </c>
       <c r="AX33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ33" t="n">
         <v>67</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K34" t="n">
         <v>1.95</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
@@ -6613,22 +6613,22 @@
         <v>2.38</v>
       </c>
       <c r="U34" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V34" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W34" t="n">
         <v>6</v>
       </c>
       <c r="X34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y34" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y34" t="n">
-        <v>10</v>
-      </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="n">
         <v>21</v>
@@ -6643,7 +6643,7 @@
         <v>6</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="n">
         <v>67</v>
@@ -6652,19 +6652,19 @@
         <v>501</v>
       </c>
       <c r="AH34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>15</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>13</v>
-      </c>
       <c r="AK34" t="n">
         <v>41</v>
       </c>
       <c r="AL34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM34" t="n">
         <v>41</v>
@@ -6673,13 +6673,13 @@
         <v>4</v>
       </c>
       <c r="AO34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="n">
         <v>81</v>
@@ -6697,22 +6697,22 @@
         <v>67</v>
       </c>
       <c r="AW34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY34" t="n">
         <v>34</v>
       </c>
       <c r="AZ34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA34" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB34" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC34" t="n">
         <v>126</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>2.9</v>
       </c>
       <c r="I35" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
@@ -6768,13 +6768,13 @@
         <v>1.91</v>
       </c>
       <c r="L35" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O35" t="n">
         <v>1.53</v>
@@ -6789,10 +6789,10 @@
         <v>1.44</v>
       </c>
       <c r="S35" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U35" t="n">
         <v>2.2</v>
@@ -6801,16 +6801,16 @@
         <v>1.62</v>
       </c>
       <c r="W35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="n">
         <v>34</v>
@@ -6828,7 +6828,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG35" t="n">
         <v>351</v>
@@ -6837,16 +6837,16 @@
         <v>6</v>
       </c>
       <c r="AI35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM35" t="n">
         <v>41</v>
@@ -6864,7 +6864,7 @@
         <v>67</v>
       </c>
       <c r="AR35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS35" t="n">
         <v>351</v>
@@ -6935,10 +6935,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
         <v>3.5</v>
@@ -6953,10 +6953,10 @@
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O36" t="n">
         <v>1.29</v>
@@ -6983,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X36" t="n">
         <v>10</v>
@@ -7001,7 +7001,7 @@
         <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
         <v>6.5</v>
@@ -7019,7 +7019,7 @@
         <v>11</v>
       </c>
       <c r="AI36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="n">
         <v>12</v>
@@ -7088,7 +7088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OnJJkFJb</t>
+          <t>WSlPNaVs</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -7108,160 +7108,160 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="H37" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P37" t="n">
         <v>4.45</v>
       </c>
-      <c r="J37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N37" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.65</v>
-      </c>
       <c r="Q37" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="R37" t="n">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="S37" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T37" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="V37" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="W37" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="X37" t="n">
-        <v>8.75</v>
+        <v>14.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="Z37" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AA37" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.9</v>
+        <v>9.25</v>
       </c>
       <c r="AD37" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AE37" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG37" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AH37" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AI37" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AK37" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AL37" t="n">
-        <v>37</v>
+        <v>18.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.7</v>
+        <v>4.65</v>
       </c>
       <c r="AO37" t="n">
-        <v>8.75</v>
+        <v>11.75</v>
       </c>
       <c r="AP37" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AR37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS37" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AV37" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AW37" t="n">
-        <v>6.3</v>
+        <v>4.9</v>
       </c>
       <c r="AX37" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AY37" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ37" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="BA37" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="BB37" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="BC37" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD37" t="n">
         <v>51</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WSlPNaVs</t>
+          <t>EaYcijro</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,170 +7280,170 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.57</v>
+        <v>3.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="P38" t="n">
-        <v>4.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R38" t="n">
         <v>1.5</v>
       </c>
-      <c r="R38" t="n">
-        <v>2.42</v>
-      </c>
       <c r="S38" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="T38" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="U38" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="V38" t="n">
-        <v>2.52</v>
+        <v>1.67</v>
       </c>
       <c r="W38" t="n">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="X38" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="Y38" t="n">
         <v>9.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA38" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AB38" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="AD38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH38" t="n">
         <v>8</v>
       </c>
-      <c r="AE38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH38" t="n">
+      <c r="AI38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>13</v>
       </c>
-      <c r="AI38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>10</v>
-      </c>
       <c r="AK38" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AL38" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AM38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX38" t="n">
         <v>21</v>
       </c>
-      <c r="AN38" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>13</v>
-      </c>
       <c r="AY38" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ38" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BA38" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="BB38" t="n">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="BC38" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BD38" t="n">
         <v>51</v>
@@ -7452,7 +7452,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EaYcijro</t>
+          <t>4j4y5VfK</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7462,354 +7462,172 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Aberystwyth</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>4.85</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="I39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW39" t="n">
         <v>3.5</v>
       </c>
-      <c r="J39" t="n">
-        <v>3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>7</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W39" t="n">
-        <v>6</v>
-      </c>
-      <c r="X39" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX39" t="n">
-        <v>21</v>
+        <v>7.6</v>
       </c>
       <c r="AY39" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AZ39" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="BA39" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="BB39" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="BC39" t="n">
         <v>51</v>
       </c>
       <c r="BD39" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>4j4y5VfK</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Aberystwyth</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Newtown</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N40" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X40" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD40" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -813,13 +813,13 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>8</v>
-      </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -828,16 +828,16 @@
         <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
@@ -849,13 +849,13 @@
         <v>3.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -885,7 +885,7 @@
         <v>201</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Uc9TxhUH</t>
+          <t>EaYcijro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,47 +910,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -986,7 +986,7 @@
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1007,13 +1007,13 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -1025,13 +1025,13 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1058,206 +1058,24 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EaYcijro</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Maldonado</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -953,16 +953,16 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -762,7 +762,7 @@
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -813,13 +813,13 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -828,16 +828,16 @@
         <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
@@ -855,7 +855,7 @@
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -885,7 +885,7 @@
         <v>201</v>
       </c>
       <c r="BA2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -756,7 +756,7 @@
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -813,10 +813,10 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -831,7 +831,7 @@
         <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>81</v>
@@ -849,7 +849,7 @@
         <v>3.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EaYcijro</t>
+          <t>QmuqFgzh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,49 +920,49 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -971,106 +971,106 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AC3" t="n">
         <v>7</v>
       </c>
       <c r="AD3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>6</v>
       </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="n">
         <v>17</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA3" t="n">
         <v>67</v>
       </c>
-      <c r="AW3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -801,10 +801,10 @@
         <v>6</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -816,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
@@ -840,13 +840,13 @@
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
         <v>7.5</v>
@@ -867,13 +867,13 @@
         <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
@@ -882,13 +882,13 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -765,22 +765,22 @@
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -801,10 +801,10 @@
         <v>6</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
@@ -888,7 +888,7 @@
         <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J3" t="n">
         <v>7</v>
@@ -944,7 +944,7 @@
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -1028,7 +1028,7 @@
         <v>351</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
         <v>41</v>
@@ -1067,7 +1067,7 @@
         <v>29</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -971,25 +971,25 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
         <v>12</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>81</v>
       </c>
       <c r="AA3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB3" t="n">
         <v>67</v>
@@ -998,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -1007,7 +1007,7 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -1016,7 +1016,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -1037,7 +1037,7 @@
         <v>51</v>
       </c>
       <c r="AQ3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR3" t="n">
         <v>251</v>
@@ -1049,25 +1049,25 @@
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QmuqFgzh</t>
+          <t>rVIQRBBR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,172 +910,354 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I3" t="n">
         <v>7.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.53</v>
-      </c>
       <c r="J3" t="n">
-        <v>7.5</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W3" t="n">
         <v>8</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W3" t="n">
-        <v>12</v>
-      </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
         <v>23</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>81</v>
       </c>
-      <c r="AA3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR3" t="n">
         <v>41</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
         <v>51</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
       <c r="AW3" t="n">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
       </c>
       <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>QmuqFgzh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W4" t="n">
+        <v>12</v>
+      </c>
+      <c r="X4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP4" t="n">
         <v>51</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="AQ4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0nwS6AZ1</t>
+          <t>rVIQRBBR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,169 +738,169 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8</v>
+      </c>
+      <c r="X2" t="n">
         <v>7</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6</v>
-      </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
         <v>9.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
         <v>81</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
         <v>51</v>
       </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>451</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rVIQRBBR</t>
+          <t>QmuqFgzh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,354 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W3" t="n">
+        <v>12</v>
+      </c>
+      <c r="X3" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
         <v>4.75</v>
       </c>
-      <c r="I3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>15</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="AI3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
         <v>8</v>
       </c>
-      <c r="X3" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AO3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU3" t="n">
         <v>11</v>
       </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AV3" t="n">
         <v>81</v>
       </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>QmuqFgzh</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Racing Montevideo</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QmuqFgzh</t>
+          <t>OGYJXPXN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,172 +910,354 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.53</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>7.5</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
         <v>8</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>12</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
         <v>34</v>
       </c>
-      <c r="Y3" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
         <v>8</v>
       </c>
-      <c r="AE3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AV3" t="n">
         <v>51</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
       <c r="AW3" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
       </c>
       <c r="AZ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>QmuqFgzh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W4" t="n">
+        <v>13</v>
+      </c>
+      <c r="X4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY4" t="n">
         <v>26</v>
       </c>
-      <c r="BA3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB3" t="n">
+      <c r="AZ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB4" t="n">
         <v>251</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -1129,10 +1129,10 @@
         <v>2.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OGYJXPXN</t>
+          <t>xnqclRX1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,170 +910,170 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>22:20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.2</v>
       </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>10</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QmuqFgzh</t>
+          <t>OGYJXPXN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,172 +1092,354 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
         <v>8</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
         <v>8</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W4" t="n">
-        <v>13</v>
-      </c>
-      <c r="X4" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
         <v>5.5</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>QmuqFgzh</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13</v>
+      </c>
+      <c r="X5" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY5" t="n">
         <v>26</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="AZ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA5" t="n">
         <v>51</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB5" t="n">
         <v>251</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -771,16 +771,16 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -947,10 +947,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -1028,10 +1028,10 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1129,22 +1129,22 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,16 +750,16 @@
         <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
         <v>6.5</v>
@@ -783,22 +783,22 @@
         <v>2.35</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -825,10 +825,10 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -846,13 +846,13 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
         <v>6.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>19</v>
@@ -864,7 +864,7 @@
         <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -888,10 +888,10 @@
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -1259,188 +1259,6 @@
       </c>
       <c r="BD4" t="n">
         <v>126</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>QmuqFgzh</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Racing Montevideo</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W5" t="n">
-        <v>13</v>
-      </c>
-      <c r="X5" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -947,10 +947,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -1129,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1147,10 +1147,10 @@
         <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1177,10 +1177,10 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1195,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>12</v>
@@ -1204,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1219,19 +1219,19 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>1.83</v>
@@ -762,19 +762,19 @@
         <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.57</v>
@@ -789,16 +789,16 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -813,22 +813,22 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -846,16 +846,16 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
         <v>6.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>501</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -947,10 +947,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -1028,10 +1028,10 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1153,10 +1153,10 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
         <v>8</v>
@@ -1168,25 +1168,25 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
         <v>17</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1219,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1246,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1153,40 +1153,40 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1195,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>12</v>
@@ -1204,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1219,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1240,13 +1240,13 @@
         <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -929,46 +929,46 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
         <v>2.25</v>
@@ -980,13 +980,13 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -995,10 +995,10 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1010,10 +1010,10 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1028,10 +1028,10 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1043,10 +1043,10 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
         <v>9.5</v>
@@ -1055,16 +1055,16 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>9.5</v>
@@ -1177,7 +1177,7 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1198,7 +1198,7 @@
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1231,19 +1231,19 @@
         <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
@@ -1252,7 +1252,7 @@
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rVIQRBBR</t>
+          <t>xnqclRX1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
         <v>7</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
         <v>17</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
       </c>
       <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
         <v>51</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AN2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="n">
         <v>251</v>
       </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AT2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY2" t="n">
         <v>41</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="AZ2" t="n">
         <v>101</v>
       </c>
-      <c r="AT2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC2" t="n">
         <v>126</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BD2" t="n">
         <v>126</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>xnqclRX1</t>
+          <t>OGYJXPXN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,354 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR3" t="n">
         <v>51</v>
       </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>OGYJXPXN</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Queretaro</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Santos Laguna</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD4" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,188 +897,6 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OGYJXPXN</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>08/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Queretaro</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Santos Laguna</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
